--- a/2_Raw_Data/2_1_TPS/TPS_key_words_code_final.xlsx
+++ b/2_Raw_Data/2_1_TPS/TPS_key_words_code_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuwe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuwe\Desktop\大团队科学样本代表性\BTS_Sample_Stage1_RR\BTS_Sample_Stage1_RR\2_Raw_Data\2_1_TPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563B47CD-53AF-4E45-8D04-69FE9BB47E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6BA22-2518-4DA1-9635-E25CBEAE6B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>wangchunxiao</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5BA1D398-287E-4419-807C-365817E10F75}">
       <text>
         <r>
           <rPr>
@@ -60,31 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A147" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wangchunxiao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-JAP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A206" authorId="0" shapeId="0" xr:uid="{BF23C869-C24B-4760-AB68-6B709C1E1EEF}">
       <text>
         <r>
           <rPr>
@@ -108,55 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A321" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wangchunxiao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-JEP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A384" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wangchunxiao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-JEPG</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A551" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="A543" authorId="0" shapeId="0" xr:uid="{D999D51F-8474-465F-9AE6-8D9525618687}">
       <text>
         <r>
           <rPr>
@@ -180,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A581" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="A573" authorId="0" shapeId="0" xr:uid="{340CDAC6-63B9-4BFE-B236-583E04145737}">
       <text>
         <r>
           <rPr>
@@ -204,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A677" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="A668" authorId="0" shapeId="0" xr:uid="{8FC1BD0A-7565-45E3-80D2-F1489EF4501A}">
       <text>
         <r>
           <rPr>
@@ -228,36 +156,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A745" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wangchunxiao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-PS</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1618">
   <si>
     <t>ID</t>
   </si>
@@ -520,12 +424,6 @@
     <t>conceptual change, science learning, young children</t>
   </si>
   <si>
-    <t>00_Examining timing effects in the intergenerational transmission of anxiety and depressive symptoms: A genetically informed study</t>
-  </si>
-  <si>
-    <t>anxiety and depressive symptoms, timing effects, trait–state–occasion model, behavioral genetics, adoption</t>
-  </si>
-  <si>
     <t>00_Associations between adolescent friends responses during problem talk and depressive symptoms</t>
   </si>
   <si>
@@ -592,12 +490,6 @@
     <t>affinity for solitude, adjustment, Chinese children and adolescents</t>
   </si>
   <si>
-    <t>00_The longitudinal relationship between life events and loneliness in adolescence: A twin study</t>
-  </si>
-  <si>
-    <t>loneliness, life events, adolescence, random intercept cross-lagged panel model, twin study</t>
-  </si>
-  <si>
     <t>00_Revisiting associations between behavioral inhibition/shyness and social competence in young Chinese children: Sociohistorical imprint on three samples</t>
   </si>
   <si>
@@ -652,12 +544,6 @@
     <t>reciprocity, cooperation, early childhood, gender, culture</t>
   </si>
   <si>
-    <t>00_Developmental antecedents of adherence to masculinity norms: A 9-year longitudinal study of urban Chinese families</t>
-  </si>
-  <si>
-    <t>masculinity, maternal sensitivity, Chinese families, parental gender beliefs, gender development</t>
-  </si>
-  <si>
     <t>00_Longitudinal stability and change across a year in children's gender stereotypes about four different STEM fields</t>
   </si>
   <si>
@@ -682,12 +568,6 @@
     <t>friendship, trust in testimony, selective trust</t>
   </si>
   <si>
-    <t>00_Machiavellian behavior and socialemotional functioning in middle childhood and early adolescence</t>
-  </si>
-  <si>
-    <t>Machiavellian, aggression, middle childhood, early adolescence, social–emotional development</t>
-  </si>
-  <si>
     <t>00_The nonmeek inherit the earth: Children generalize dominance, but not submissiveness</t>
   </si>
   <si>
@@ -1513,12 +1393,6 @@
     <t>00_Rudeness and team performance: Adverse effects via member social value orientation and coordinative team processes</t>
   </si>
   <si>
-    <t>00_High-performance work system and organizational resilience process: The case of firms during a global crisis</t>
-  </si>
-  <si>
-    <t>organizational resilience, resilience process, high-performance work system, organizational climate, COVID-19 pandemic</t>
-  </si>
-  <si>
     <t>00_The Impact of Linguistic Prediction Violations on Downstream Recognition Memory and Sentence Recall</t>
   </si>
   <si>
@@ -2149,12 +2023,6 @@
     <t>dual language learners, contextual factors, Head Start, mixture modeling, latent profile analysis</t>
   </si>
   <si>
-    <t>00_Cross-linguistic influence of early Spanish reading on English reading trajectories among Spanish–English emergent bilinguals: A latent class growth analysis</t>
-  </si>
-  <si>
-    <t>emergent bilinguals, academic trajectories, cross-language transfer, Spanish–English bilinguals, latent class growth analysis</t>
-  </si>
-  <si>
     <t>00_Worked examples moderate the effect of math learning anxiety on children’s math learning and engagement during the COVID-19 pandemic</t>
   </si>
   <si>
@@ -2359,12 +2227,6 @@
     <t>critical thinking skills, conflict control, inhibition, metacognition</t>
   </si>
   <si>
-    <t>00_What are the long-term prospects for children with comprehension weaknesses? A registered report investigating education and employment outcomes</t>
-  </si>
-  <si>
-    <t>poor comprehenders, educational attainment, occupation, longitudinal, Avon Longitudinal Study of Parents and Children</t>
-  </si>
-  <si>
     <t>00_Impact of supplemental multicomponent early childhood language instruction</t>
   </si>
   <si>
@@ -2455,12 +2317,6 @@
     <t>compliance, school-based randomised controlled trials, latent growth modeling, multilevel structural equation modeling, Good Behavior Game</t>
   </si>
   <si>
-    <t>00_How the predictors of math achievement change over time: A longitudinal machine learning approach</t>
-  </si>
-  <si>
-    <t>mathematics, student achievement, longitudinal survey data, machine learning, explainable artificial intelligence</t>
-  </si>
-  <si>
     <t>00_Mature number sense predicts middle school students’ mathematics achievement</t>
   </si>
   <si>
@@ -3829,12 +3685,6 @@
     <t>temperament, personality, Big Five, genetics, twin study</t>
   </si>
   <si>
-    <t>00_Most people's life satisfaction matches their personality traits: True correlations in multitrait, multirater, multisample data</t>
-  </si>
-  <si>
-    <t>personality traits, life satisfaction, well-being, multirater</t>
-  </si>
-  <si>
     <t>00_Getting under the skin? Influences of work–family experiences on personality trait adaptation and reciprocal relationships</t>
   </si>
   <si>
@@ -4315,12 +4165,6 @@
     <t>large language models, language network, encoding model, surprisal, structural integrity</t>
   </si>
   <si>
-    <t>00_Shared genetic architectures of educational attainment in East Asian and European populations</t>
-  </si>
-  <si>
-    <t>Genetic architecture of educational attainment, Transferability, Cross-ancestry, Genome-wide association study, Polygenic prediction</t>
-  </si>
-  <si>
     <t>00_Effects of calibrated blue–yellow changes in light on the human circadian clock</t>
   </si>
   <si>
@@ -4330,9 +4174,6 @@
     <t>00_Trusting young children to help causes them to cheat less</t>
   </si>
   <si>
-    <t>00_Modelling dataset bias in machine-learned theories of economic decision-making</t>
-  </si>
-  <si>
     <t>00_Bayesianism and wishful thinking are compatible</t>
   </si>
   <si>
@@ -4381,9 +4222,6 @@
     <t>Transferability, Field Testing, Behavioral Interventions, Vaccination Promotion, Randomized Controlled Trials</t>
   </si>
   <si>
-    <t>00_Chimpanzees use social information to acquire a skill they fail to innovate</t>
-  </si>
-  <si>
     <t>00_Dynamic computational phenotyping of human cognition</t>
   </si>
   <si>
@@ -4844,12 +4682,6 @@
   </si>
   <si>
     <t>caricature, shape, memory, complexity, open data, open materials</t>
-  </si>
-  <si>
-    <t>00_Adolescents’ Perceptions of Household Chaos Predict Their Adult Mental Health: A Twin-Difference Longitudinal Cohort Study</t>
-  </si>
-  <si>
-    <t>subjective household chaos, twin-difference design, adult mental health, family background inequality, adolescence, open materials, preregistered</t>
   </si>
   <si>
     <t>00_Neural Signatures of Evidence Accumulation Encode Subjective Perceptual Confidence Independent of Performance</t>
@@ -5180,10 +5012,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>machine-learned, decision-making, Dataset bias, Decision noise,  Neural networks</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Bayesian model, Belief Polarization, Wishful Thinking, Affective Prediction Error, Directional Motivation</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -5217,10 +5045,6 @@
   </si>
   <si>
     <t>olfactory perception, neural representation, substructure adaptation, Amygdala,  fMRI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social learning, Know-how copying, Cumulative cultural evolution, Zone of latent solutions, chimpanzees</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -5728,21 +5552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C822"/>
+  <dimension ref="A1:C809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C706" sqref="C706"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.796875" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="102.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +5576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.4" thickTop="1">
       <c r="A2" s="2">
         <v>24010001</v>
       </c>
@@ -7293,7 +7116,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" ht="14.4" thickBot="1">
       <c r="A142">
         <v>24010141</v>
       </c>
@@ -7304,22 +7127,22 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" ht="14.4" thickTop="1">
       <c r="A143">
-        <v>24010142</v>
-      </c>
-      <c r="B143" s="4" t="s">
+        <v>24020001</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>24010143</v>
-      </c>
-      <c r="B144" s="4" t="s">
+        <v>24020002</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>287</v>
       </c>
       <c r="C144" t="s">
@@ -7328,9 +7151,9 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>24010144</v>
-      </c>
-      <c r="B145" s="4" t="s">
+        <v>24020003</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>289</v>
       </c>
       <c r="C145" t="s">
@@ -7339,9 +7162,9 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>24010145</v>
-      </c>
-      <c r="B146" s="4" t="s">
+        <v>24020004</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>291</v>
       </c>
       <c r="C146" t="s">
@@ -7349,19 +7172,19 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="2">
-        <v>24020001</v>
-      </c>
-      <c r="B147" s="5" t="s">
+      <c r="A147">
+        <v>24020005</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>24020002</v>
+        <v>24020006</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>295</v>
@@ -7372,7 +7195,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>24020003</v>
+        <v>24020007</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>297</v>
@@ -7383,7 +7206,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>24020004</v>
+        <v>24020008</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>299</v>
@@ -7394,7 +7217,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>24020005</v>
+        <v>24020009</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>301</v>
@@ -7405,7 +7228,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>24020006</v>
+        <v>24020010</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>303</v>
@@ -7416,7 +7239,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>24020007</v>
+        <v>24020011</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>305</v>
@@ -7427,7 +7250,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>24020008</v>
+        <v>24020012</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>307</v>
@@ -7438,7 +7261,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>24020009</v>
+        <v>24020013</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>309</v>
@@ -7449,7 +7272,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>24020010</v>
+        <v>24020014</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>311</v>
@@ -7460,7 +7283,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>24020011</v>
+        <v>24020015</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>313</v>
@@ -7471,7 +7294,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>24020012</v>
+        <v>24020016</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>315</v>
@@ -7482,7 +7305,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>24020013</v>
+        <v>24020017</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>317</v>
@@ -7493,7 +7316,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>24020014</v>
+        <v>24020018</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>319</v>
@@ -7504,7 +7327,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>24020015</v>
+        <v>24020019</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>321</v>
@@ -7515,7 +7338,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>24020016</v>
+        <v>24020020</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>323</v>
@@ -7526,7 +7349,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>24020017</v>
+        <v>24020021</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>325</v>
@@ -7537,7 +7360,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>24020018</v>
+        <v>24020022</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>327</v>
@@ -7548,7 +7371,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>24020019</v>
+        <v>24020023</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>329</v>
@@ -7559,7 +7382,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>24020020</v>
+        <v>24020024</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>331</v>
@@ -7570,7 +7393,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>24020021</v>
+        <v>24020025</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>333</v>
@@ -7581,7 +7404,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>24020022</v>
+        <v>24020026</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>335</v>
@@ -7592,7 +7415,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>24020023</v>
+        <v>24020027</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>337</v>
@@ -7603,7 +7426,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>24020024</v>
+        <v>24020028</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>339</v>
@@ -7614,7 +7437,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>24020025</v>
+        <v>24020029</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>341</v>
@@ -7625,7 +7448,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>24020026</v>
+        <v>24020030</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>343</v>
@@ -7636,7 +7459,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>24020027</v>
+        <v>24020031</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>345</v>
@@ -7647,7 +7470,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>24020028</v>
+        <v>24020032</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>347</v>
@@ -7658,7 +7481,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>24020029</v>
+        <v>24020033</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>349</v>
@@ -7669,7 +7492,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>24020030</v>
+        <v>24020034</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>351</v>
@@ -7680,7 +7503,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>24020031</v>
+        <v>24020035</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>353</v>
@@ -7691,7 +7514,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>24020032</v>
+        <v>24020036</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>355</v>
@@ -7702,7 +7525,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>24020033</v>
+        <v>24020037</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>357</v>
@@ -7713,7 +7536,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>24020034</v>
+        <v>24020038</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>359</v>
@@ -7724,7 +7547,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>24020035</v>
+        <v>24020039</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>361</v>
@@ -7735,7 +7558,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>24020036</v>
+        <v>24020040</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>363</v>
@@ -7746,7 +7569,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>24020037</v>
+        <v>24020041</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>365</v>
@@ -7757,7 +7580,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>24020038</v>
+        <v>24020042</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>367</v>
@@ -7768,7 +7591,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>24020039</v>
+        <v>24020043</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>369</v>
@@ -7779,7 +7602,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>24020040</v>
+        <v>24020044</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>371</v>
@@ -7790,7 +7613,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>24020041</v>
+        <v>24020045</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>373</v>
@@ -7801,7 +7624,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>24020042</v>
+        <v>24020046</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>375</v>
@@ -7812,7 +7635,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>24020043</v>
+        <v>24020047</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>377</v>
@@ -7823,7 +7646,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>24020044</v>
+        <v>24020048</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>379</v>
@@ -7834,7 +7657,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>24020045</v>
+        <v>24020049</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>381</v>
@@ -7845,7 +7668,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>24020046</v>
+        <v>24020050</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>383</v>
@@ -7856,7 +7679,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>24020047</v>
+        <v>24020051</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>385</v>
@@ -7867,7 +7690,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>24020048</v>
+        <v>24020052</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>387</v>
@@ -7878,7 +7701,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>24020049</v>
+        <v>24020053</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>389</v>
@@ -7889,7 +7712,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>24020050</v>
+        <v>24020054</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>391</v>
@@ -7900,7 +7723,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>24020051</v>
+        <v>24020055</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>393</v>
@@ -7911,7 +7734,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>24020052</v>
+        <v>24020056</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>395</v>
@@ -7922,7 +7745,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>24020053</v>
+        <v>24020057</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>397</v>
@@ -7933,7 +7756,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>24020054</v>
+        <v>24020058</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>399</v>
@@ -7944,7 +7767,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>24020055</v>
+        <v>24020059</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>401</v>
@@ -7955,7 +7778,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>24020056</v>
+        <v>24020060</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>403</v>
@@ -7966,7 +7789,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>24020057</v>
+        <v>24020061</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>405</v>
@@ -7977,7 +7800,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>24020058</v>
+        <v>24020062</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>407</v>
@@ -7986,207 +7809,207 @@
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="14.4" thickBot="1">
       <c r="A205">
-        <v>24020059</v>
+        <v>24020063</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="20" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A206" s="2">
+        <v>24030001</v>
+      </c>
+      <c r="B206" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206">
-        <v>24020060</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C206" t="s">
-        <v>412</v>
+      <c r="C206" s="22" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>24020061</v>
-      </c>
-      <c r="B207" s="6" t="s">
+        <v>24030002</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A208">
+        <v>24030003</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="39" customHeight="1" thickTop="1">
+      <c r="A209" s="2">
+        <v>24030004</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="16" customFormat="1">
+      <c r="A210">
+        <v>24030005</v>
+      </c>
+      <c r="B210" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C210" s="16" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208">
-        <v>24020062</v>
-      </c>
-      <c r="B208" s="6" t="s">
+    <row r="211" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A211">
+        <v>24030006</v>
+      </c>
+      <c r="B211" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C211" s="20" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A212" s="2">
+        <v>24030007</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209">
-        <v>24020063</v>
-      </c>
-      <c r="B209" s="6" t="s">
+      <c r="C212" s="22" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>24030008</v>
+      </c>
+      <c r="B213" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C209" s="20" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210">
-        <v>24020064</v>
-      </c>
-      <c r="B210" s="7" t="s">
+      <c r="C213" t="s">
         <v>418</v>
       </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="214" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A214">
+        <v>24030009</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2">
-        <v>24030001</v>
-      </c>
-      <c r="B211" s="8" t="s">
+      <c r="C214" s="20" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A215" s="2">
+        <v>24030010</v>
+      </c>
+      <c r="B215" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C211" s="22" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212">
-        <v>24030002</v>
-      </c>
-      <c r="B212" s="23" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C212" s="22" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="14.4">
-      <c r="A213">
-        <v>24030003</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C213" s="21" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="39" customHeight="1">
-      <c r="A214">
-        <v>24030004</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C214" s="24" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" s="16" customFormat="1">
-      <c r="A215" s="16">
-        <v>24030005</v>
-      </c>
-      <c r="B215" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>424</v>
+      <c r="C215" s="22" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>24030006</v>
+        <v>24030011</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.4" thickBot="1">
       <c r="A217">
-        <v>24030007</v>
+        <v>24030012</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C217" s="22" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218">
-        <v>24030008</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C218" t="s">
-        <v>428</v>
+        <v>422</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="16" customFormat="1" ht="14.4" thickTop="1">
+      <c r="A218" s="2">
+        <v>24030013</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>24030009</v>
+        <v>24030014</v>
       </c>
       <c r="B219" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C219" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A220">
+        <v>24030015</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C220" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A221" s="2">
+        <v>24030016</v>
+      </c>
+      <c r="B221" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C219" s="20" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220">
-        <v>24030010</v>
-      </c>
-      <c r="B220" s="8" t="s">
+      <c r="C221" t="s">
         <v>430</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221">
-        <v>24030011</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C221" s="20" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>24030012</v>
+        <v>24030017</v>
       </c>
       <c r="B222" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C222" t="s">
         <v>432</v>
       </c>
-      <c r="C222" s="20" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" s="16" customFormat="1">
-      <c r="A223" s="16">
-        <v>24030013</v>
+    </row>
+    <row r="223" spans="1:3" s="16" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A223">
+        <v>24030018</v>
       </c>
       <c r="B223" s="17" t="s">
         <v>433</v>
@@ -8195,9 +8018,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224">
-        <v>24030014</v>
+    <row r="224" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A224" s="2">
+        <v>24030019</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>435</v>
@@ -8208,7 +8031,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>24030015</v>
+        <v>24030020</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>437</v>
@@ -8217,163 +8040,163 @@
         <v>438</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" ht="14.4" thickBot="1">
       <c r="A226">
-        <v>24030016</v>
+        <v>24030021</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="22" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A227" s="2">
+        <v>24030022</v>
+      </c>
+      <c r="B227" s="8" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227">
-        <v>24030017</v>
-      </c>
-      <c r="B227" s="8" t="s">
+      <c r="C227" s="22" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>24030023</v>
+      </c>
+      <c r="B228" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" s="22" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A229">
+        <v>24030024</v>
+      </c>
+      <c r="B229" s="8" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" s="16" customFormat="1">
-      <c r="A228" s="16">
-        <v>24030018</v>
-      </c>
-      <c r="B228" s="17" t="s">
+      <c r="C229" s="22" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A230" s="2">
+        <v>24030025</v>
+      </c>
+      <c r="B230" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C228" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229">
-        <v>24030019</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C229" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230">
-        <v>24030020</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C230" t="s">
-        <v>448</v>
+      <c r="C230" s="20" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>24030021</v>
+        <v>24030026</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.4" thickBot="1">
       <c r="A232">
-        <v>24030022</v>
+        <v>24030027</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233">
-        <v>24030023</v>
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A233" s="2">
+        <v>24030028</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>1615</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>24030024</v>
+        <v>24030029</v>
       </c>
       <c r="B234" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C234" s="22" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A235">
+        <v>24030030</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A236" s="2">
+        <v>24030031</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C236" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.4">
+      <c r="A237">
+        <v>24030032</v>
+      </c>
+      <c r="B237" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C234" s="22" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235">
-        <v>24030025</v>
-      </c>
-      <c r="B235" s="8" t="s">
+      <c r="C237" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C235" s="20" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236">
-        <v>24030026</v>
-      </c>
-      <c r="B236" s="8" t="s">
+    </row>
+    <row r="238" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A238">
+        <v>24030033</v>
+      </c>
+      <c r="B238" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C236" s="22" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237">
-        <v>24030027</v>
-      </c>
-      <c r="B237" s="8" t="s">
+      <c r="C238" t="s">
         <v>455</v>
       </c>
-      <c r="C237" s="22" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238">
-        <v>24030028</v>
-      </c>
-      <c r="B238" s="8" t="s">
+    </row>
+    <row r="239" spans="1:3" ht="14.7" thickTop="1">
+      <c r="A239" s="2">
+        <v>24030034</v>
+      </c>
+      <c r="B239" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C238" s="22" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239">
-        <v>24030029</v>
-      </c>
-      <c r="B239" s="8" t="s">
+      <c r="C239" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="C239" s="22" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.4">
       <c r="A240">
-        <v>24030030</v>
+        <v>24030035</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>458</v>
@@ -8382,20 +8205,20 @@
         <v>459</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" ht="14.7" thickBot="1">
       <c r="A241">
-        <v>24030031</v>
+        <v>24030036</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="14.4">
-      <c r="A242">
-        <v>24030032</v>
+    <row r="242" spans="1:3" ht="14.7" thickTop="1">
+      <c r="A242" s="2">
+        <v>24030037</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>462</v>
@@ -8406,7 +8229,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>24030033</v>
+        <v>24030038</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>464</v>
@@ -8415,53 +8238,53 @@
         <v>465</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="14.4">
+    <row r="244" spans="1:3" ht="14.4" thickBot="1">
       <c r="A244">
-        <v>24030034</v>
+        <v>24030039</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="14.4">
-      <c r="A245">
-        <v>24030035</v>
+    <row r="245" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A245" s="2">
+        <v>24030040</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="14.4">
+    <row r="246" spans="1:3">
       <c r="A246">
-        <v>24030036</v>
+        <v>24030041</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.4">
+    <row r="247" spans="1:3" ht="14.4" thickBot="1">
       <c r="A247">
-        <v>24030037</v>
+        <v>24030042</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248">
-        <v>24030038</v>
+    <row r="248" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A248" s="2">
+        <v>24030043</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>474</v>
@@ -8472,7 +8295,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>24030039</v>
+        <v>24030044</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>476</v>
@@ -8481,9 +8304,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" ht="14.4" thickBot="1">
       <c r="A250">
-        <v>24030040</v>
+        <v>24030045</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>478</v>
@@ -8492,9 +8315,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="A251">
-        <v>24030041</v>
+    <row r="251" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A251" s="2">
+        <v>24030046</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>480</v>
@@ -8505,7 +8328,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>24030042</v>
+        <v>24030047</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>482</v>
@@ -8514,9 +8337,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" ht="14.4" thickBot="1">
       <c r="A253">
-        <v>24030043</v>
+        <v>24030048</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>484</v>
@@ -8525,9 +8348,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254">
-        <v>24030044</v>
+    <row r="254" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A254" s="2">
+        <v>24030049</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>486</v>
@@ -8538,7 +8361,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>24030045</v>
+        <v>24030050</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>488</v>
@@ -8547,9 +8370,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" ht="14.4" thickBot="1">
       <c r="A256">
-        <v>24030046</v>
+        <v>24030051</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>490</v>
@@ -8558,20 +8381,20 @@
         <v>491</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257">
-        <v>24030047</v>
-      </c>
-      <c r="B257" s="8" t="s">
+    <row r="257" spans="1:3" s="19" customFormat="1" ht="14.4" thickTop="1">
+      <c r="A257" s="2">
+        <v>24030052</v>
+      </c>
+      <c r="B257" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="19" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>24030048</v>
+        <v>24030053</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>494</v>
@@ -8580,9 +8403,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" ht="14.4" thickBot="1">
       <c r="A259">
-        <v>24030049</v>
+        <v>24030054</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>496</v>
@@ -8591,9 +8414,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260">
-        <v>24030050</v>
+    <row r="260" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A260" s="2">
+        <v>24030055</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>498</v>
@@ -8604,7 +8427,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>24030051</v>
+        <v>24030056</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>500</v>
@@ -8613,20 +8436,20 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="19" customFormat="1">
-      <c r="A262" s="19">
-        <v>24030052</v>
-      </c>
-      <c r="B262" s="18" t="s">
+    <row r="262" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A262">
+        <v>24030057</v>
+      </c>
+      <c r="B262" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C262" s="19" t="s">
+      <c r="C262" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="A263">
-        <v>24030053</v>
+    <row r="263" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A263" s="2">
+        <v>24030058</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>504</v>
@@ -8637,7 +8460,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>24030054</v>
+        <v>24030059</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>506</v>
@@ -8646,9 +8469,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" ht="14.4" thickBot="1">
       <c r="A265">
-        <v>24030055</v>
+        <v>24030060</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>508</v>
@@ -8657,9 +8480,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266">
-        <v>24030056</v>
+    <row r="266" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A266" s="2">
+        <v>24030061</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>510</v>
@@ -8670,7 +8493,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>24030057</v>
+        <v>24030062</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>512</v>
@@ -8679,9 +8502,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" ht="14.4" thickBot="1">
       <c r="A268">
-        <v>24030058</v>
+        <v>24030063</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>514</v>
@@ -8690,9 +8513,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="A269">
-        <v>24030059</v>
+    <row r="269" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A269" s="2">
+        <v>24030064</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>516</v>
@@ -8703,7 +8526,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>24030060</v>
+        <v>24030065</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>518</v>
@@ -8712,9 +8535,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" ht="14.4" thickBot="1">
       <c r="A271">
-        <v>24030061</v>
+        <v>24030066</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>520</v>
@@ -8723,9 +8546,9 @@
         <v>521</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="A272">
-        <v>24030062</v>
+    <row r="272" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A272" s="2">
+        <v>24030067</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>522</v>
@@ -8736,7 +8559,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>24030063</v>
+        <v>24030068</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>524</v>
@@ -8745,9 +8568,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" ht="14.4" thickBot="1">
       <c r="A274">
-        <v>24030064</v>
+        <v>24030069</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>526</v>
@@ -8756,9 +8579,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
-      <c r="A275">
-        <v>24030065</v>
+    <row r="275" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A275" s="2">
+        <v>24030070</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>528</v>
@@ -8769,7 +8592,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>24030066</v>
+        <v>24030071</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>530</v>
@@ -8778,9 +8601,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" ht="14.4" thickBot="1">
       <c r="A277">
-        <v>24030067</v>
+        <v>24030072</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>532</v>
@@ -8789,9 +8612,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
-      <c r="A278">
-        <v>24030068</v>
+    <row r="278" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A278" s="2">
+        <v>24030073</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>534</v>
@@ -8802,7 +8625,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>24030069</v>
+        <v>24030074</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>536</v>
@@ -8811,9 +8634,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" ht="14.4" thickBot="1">
       <c r="A280">
-        <v>24030070</v>
+        <v>24030075</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>538</v>
@@ -8822,9 +8645,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
-      <c r="A281">
-        <v>24030071</v>
+    <row r="281" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A281" s="2">
+        <v>24030076</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>540</v>
@@ -8835,7 +8658,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>24030072</v>
+        <v>24030077</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>542</v>
@@ -8844,9 +8667,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" ht="14.4" thickBot="1">
       <c r="A283">
-        <v>24030073</v>
+        <v>24030078</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>544</v>
@@ -8855,9 +8678,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
-      <c r="A284">
-        <v>24030074</v>
+    <row r="284" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A284" s="2">
+        <v>24030079</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>546</v>
@@ -8868,7 +8691,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>24030075</v>
+        <v>24030080</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>548</v>
@@ -8877,9 +8700,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" ht="14.4" thickBot="1">
       <c r="A286">
-        <v>24030076</v>
+        <v>24030081</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>550</v>
@@ -8888,9 +8711,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
-      <c r="A287">
-        <v>24030077</v>
+    <row r="287" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A287" s="2">
+        <v>24030082</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>552</v>
@@ -8901,7 +8724,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>24030078</v>
+        <v>24030083</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>554</v>
@@ -8910,9 +8733,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" ht="14.4" thickBot="1">
       <c r="A289">
-        <v>24030079</v>
+        <v>24030084</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>556</v>
@@ -8921,9 +8744,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="A290">
-        <v>24030080</v>
+    <row r="290" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A290" s="2">
+        <v>24030085</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>558</v>
@@ -8934,7 +8757,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>24030081</v>
+        <v>24030086</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>560</v>
@@ -8943,9 +8766,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" ht="14.4" thickBot="1">
       <c r="A292">
-        <v>24030082</v>
+        <v>24030087</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>562</v>
@@ -8954,9 +8777,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
-      <c r="A293">
-        <v>24030083</v>
+    <row r="293" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A293" s="2">
+        <v>24030088</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>564</v>
@@ -8967,7 +8790,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>24030084</v>
+        <v>24030089</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>566</v>
@@ -8976,9 +8799,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" ht="14.4" thickBot="1">
       <c r="A295">
-        <v>24030085</v>
+        <v>24030090</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>568</v>
@@ -8987,9 +8810,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
-      <c r="A296">
-        <v>24030086</v>
+    <row r="296" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A296" s="2">
+        <v>24030091</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>570</v>
@@ -9000,7 +8823,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>24030087</v>
+        <v>24030092</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>572</v>
@@ -9009,9 +8832,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" ht="14.4" thickBot="1">
       <c r="A298">
-        <v>24030088</v>
+        <v>24030093</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>574</v>
@@ -9020,9 +8843,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299">
-        <v>24030089</v>
+    <row r="299" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A299" s="2">
+        <v>24030094</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>576</v>
@@ -9033,7 +8856,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>24030090</v>
+        <v>24030095</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>578</v>
@@ -9042,9 +8865,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" ht="14.4" thickBot="1">
       <c r="A301">
-        <v>24030091</v>
+        <v>24030096</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>580</v>
@@ -9053,9 +8876,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302">
-        <v>24030092</v>
+    <row r="302" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A302" s="2">
+        <v>24030097</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>582</v>
@@ -9066,7 +8889,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>24030093</v>
+        <v>24030098</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>584</v>
@@ -9075,9 +8898,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" ht="14.4" thickBot="1">
       <c r="A304">
-        <v>24030094</v>
+        <v>24030099</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>586</v>
@@ -9086,9 +8909,9 @@
         <v>587</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305">
-        <v>24030095</v>
+    <row r="305" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A305" s="2">
+        <v>24030100</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>588</v>
@@ -9099,7 +8922,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>24030096</v>
+        <v>24030101</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>590</v>
@@ -9108,9 +8931,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" ht="14.4" thickBot="1">
       <c r="A307">
-        <v>24030097</v>
+        <v>24030102</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>592</v>
@@ -9119,9 +8942,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308">
-        <v>24030098</v>
+    <row r="308" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A308" s="2">
+        <v>24030103</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>594</v>
@@ -9132,7 +8955,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>24030099</v>
+        <v>24030104</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>596</v>
@@ -9141,9 +8964,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" ht="14.4" thickBot="1">
       <c r="A310">
-        <v>24030100</v>
+        <v>24030105</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>598</v>
@@ -9152,9 +8975,9 @@
         <v>599</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
-      <c r="A311">
-        <v>24030101</v>
+    <row r="311" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A311" s="2">
+        <v>24030106</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>600</v>
@@ -9165,106 +8988,106 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>24030102</v>
+        <v>24030107</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="20" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A313">
+        <v>24030108</v>
+      </c>
+      <c r="B313" s="8" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313">
-        <v>24030103</v>
-      </c>
-      <c r="B313" s="8" t="s">
+      <c r="C313" t="s">
         <v>604</v>
       </c>
-      <c r="C313" t="s">
+    </row>
+    <row r="314" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A314" s="2">
+        <v>24030109</v>
+      </c>
+      <c r="B314" s="8" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314">
-        <v>24030104</v>
-      </c>
-      <c r="B314" s="8" t="s">
+      <c r="C314" t="s">
         <v>606</v>
       </c>
-      <c r="C314" t="s">
+    </row>
+    <row r="315" spans="1:3" ht="14.4" thickBot="1">
+      <c r="A315">
+        <v>24030110</v>
+      </c>
+      <c r="B315" s="11" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315">
-        <v>24030105</v>
-      </c>
-      <c r="B315" s="8" t="s">
+      <c r="C315" s="22" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A316">
+        <v>24040001</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C316" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316">
-        <v>24030106</v>
-      </c>
-      <c r="B316" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C316" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>24030107</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="C317" s="20" t="s">
-        <v>1624</v>
+        <v>24040002</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C317" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>24030108</v>
-      </c>
-      <c r="B318" s="8" t="s">
+        <v>24040003</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C318" t="s">
         <v>613</v>
-      </c>
-      <c r="C318" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>24030109</v>
-      </c>
-      <c r="B319" s="8" t="s">
+        <v>24040004</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C319" t="s">
         <v>615</v>
       </c>
-      <c r="C319" t="s">
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>24040005</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="10">
-        <v>24030110</v>
-      </c>
-      <c r="B320" s="11" t="s">
+      <c r="C320" t="s">
         <v>617</v>
-      </c>
-      <c r="C320" s="22" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>24040001</v>
+        <v>24040006</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>618</v>
@@ -9275,7 +9098,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>24040002</v>
+        <v>24040007</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>620</v>
@@ -9286,7 +9109,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>24040003</v>
+        <v>24040008</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>622</v>
@@ -9297,7 +9120,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>24040004</v>
+        <v>24040009</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>624</v>
@@ -9308,7 +9131,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>24040005</v>
+        <v>24040010</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>626</v>
@@ -9319,7 +9142,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>24040006</v>
+        <v>24040011</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>628</v>
@@ -9330,7 +9153,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>24040007</v>
+        <v>24040012</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>630</v>
@@ -9341,7 +9164,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>24040008</v>
+        <v>24040013</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>632</v>
@@ -9352,7 +9175,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>24040009</v>
+        <v>24040014</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>634</v>
@@ -9363,7 +9186,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>24040010</v>
+        <v>24040015</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>636</v>
@@ -9374,7 +9197,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>24040011</v>
+        <v>24040016</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>638</v>
@@ -9385,7 +9208,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>24040012</v>
+        <v>24040017</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>640</v>
@@ -9396,7 +9219,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>24040013</v>
+        <v>24040018</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>642</v>
@@ -9407,7 +9230,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>24040014</v>
+        <v>24040019</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>644</v>
@@ -9418,7 +9241,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>24040015</v>
+        <v>24040020</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>646</v>
@@ -9429,7 +9252,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>24040016</v>
+        <v>24040021</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>648</v>
@@ -9440,7 +9263,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>24040017</v>
+        <v>24040022</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>650</v>
@@ -9451,7 +9274,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>24040018</v>
+        <v>24040023</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>652</v>
@@ -9462,7 +9285,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>24040019</v>
+        <v>24040024</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>654</v>
@@ -9473,7 +9296,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>24040020</v>
+        <v>24040025</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>656</v>
@@ -9484,7 +9307,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>24040021</v>
+        <v>24040026</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>658</v>
@@ -9495,7 +9318,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>24040022</v>
+        <v>24040027</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>660</v>
@@ -9506,7 +9329,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>24040023</v>
+        <v>24040028</v>
       </c>
       <c r="B343" s="6" t="s">
         <v>662</v>
@@ -9517,7 +9340,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>24040024</v>
+        <v>24040029</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>664</v>
@@ -9528,7 +9351,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>24040025</v>
+        <v>24040030</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>666</v>
@@ -9539,7 +9362,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>24040026</v>
+        <v>24040031</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>668</v>
@@ -9550,7 +9373,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>24040027</v>
+        <v>24040032</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>670</v>
@@ -9561,7 +9384,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>24040028</v>
+        <v>24040033</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>672</v>
@@ -9572,7 +9395,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>24040029</v>
+        <v>24040034</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>674</v>
@@ -9583,7 +9406,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>24040030</v>
+        <v>24040035</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>676</v>
@@ -9594,7 +9417,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>24040031</v>
+        <v>24040036</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>678</v>
@@ -9605,7 +9428,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>24040032</v>
+        <v>24040037</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>680</v>
@@ -9616,7 +9439,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>24040033</v>
+        <v>24040038</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>682</v>
@@ -9627,7 +9450,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>24040034</v>
+        <v>24040039</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>684</v>
@@ -9638,7 +9461,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>24040035</v>
+        <v>24040040</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>686</v>
@@ -9649,7 +9472,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>24040036</v>
+        <v>24040041</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>688</v>
@@ -9660,7 +9483,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>24040037</v>
+        <v>24040042</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>690</v>
@@ -9671,7 +9494,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>24040038</v>
+        <v>24040043</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>692</v>
@@ -9682,7 +9505,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>24040039</v>
+        <v>24040044</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>694</v>
@@ -9693,7 +9516,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>24040040</v>
+        <v>24040045</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>696</v>
@@ -9704,7 +9527,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>24040041</v>
+        <v>24040046</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>698</v>
@@ -9715,7 +9538,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>24040042</v>
+        <v>24040047</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>700</v>
@@ -9726,7 +9549,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>24040043</v>
+        <v>24040048</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>702</v>
@@ -9737,7 +9560,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>24040044</v>
+        <v>24040049</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>704</v>
@@ -9748,7 +9571,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>24040045</v>
+        <v>24040050</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>706</v>
@@ -9759,7 +9582,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>24040046</v>
+        <v>24040051</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>708</v>
@@ -9770,7 +9593,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>24040047</v>
+        <v>24040052</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>710</v>
@@ -9781,7 +9604,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>24040048</v>
+        <v>24040053</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>712</v>
@@ -9792,7 +9615,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>24040049</v>
+        <v>24040054</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>714</v>
@@ -9803,7 +9626,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>24040050</v>
+        <v>24040055</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>716</v>
@@ -9814,7 +9637,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>24040051</v>
+        <v>24040056</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>718</v>
@@ -9825,7 +9648,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>24040052</v>
+        <v>24040057</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>720</v>
@@ -9836,7 +9659,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>24040053</v>
+        <v>24040058</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>722</v>
@@ -9847,7 +9670,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>24040054</v>
+        <v>24040059</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>724</v>
@@ -9856,20 +9679,20 @@
         <v>725</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" ht="14.4" thickBot="1">
       <c r="A375">
-        <v>24040055</v>
-      </c>
-      <c r="B375" s="6" t="s">
+        <v>24040060</v>
+      </c>
+      <c r="B375" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="10" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" ht="14.4" thickTop="1">
       <c r="A376">
-        <v>24040056</v>
+        <v>24050001</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>728</v>
@@ -9880,7 +9703,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>24040057</v>
+        <v>24050002</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>730</v>
@@ -9891,7 +9714,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>24040058</v>
+        <v>24050003</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>732</v>
@@ -9902,7 +9725,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>24040059</v>
+        <v>24050004</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>734</v>
@@ -9913,7 +9736,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>24040060</v>
+        <v>24050005</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>736</v>
@@ -9924,7 +9747,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>24040061</v>
+        <v>24050006</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>738</v>
@@ -9935,7 +9758,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>24040062</v>
+        <v>24050007</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>740</v>
@@ -9945,19 +9768,19 @@
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="10">
-        <v>24040063</v>
-      </c>
-      <c r="B383" s="7" t="s">
+      <c r="A383">
+        <v>24050008</v>
+      </c>
+      <c r="B383" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="C383" s="10" t="s">
+      <c r="C383" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>24050001</v>
+        <v>24050009</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>744</v>
@@ -9968,7 +9791,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>24050002</v>
+        <v>24050010</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>746</v>
@@ -9979,7 +9802,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>24050003</v>
+        <v>24050011</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>748</v>
@@ -9990,7 +9813,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>24050004</v>
+        <v>24050012</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>750</v>
@@ -10001,7 +9824,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>24050005</v>
+        <v>24050013</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>752</v>
@@ -10012,7 +9835,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>24050006</v>
+        <v>24050014</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>754</v>
@@ -10023,7 +9846,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>24050007</v>
+        <v>24050015</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>756</v>
@@ -10034,7 +9857,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>24050008</v>
+        <v>24050016</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>758</v>
@@ -10045,7 +9868,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>24050009</v>
+        <v>24050017</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>760</v>
@@ -10056,7 +9879,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>24050010</v>
+        <v>24050018</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>762</v>
@@ -10067,7 +9890,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>24050011</v>
+        <v>24050019</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>764</v>
@@ -10078,7 +9901,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>24050012</v>
+        <v>24050020</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>766</v>
@@ -10089,7 +9912,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>24050013</v>
+        <v>24050021</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>768</v>
@@ -10100,7 +9923,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>24050014</v>
+        <v>24050022</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>770</v>
@@ -10111,7 +9934,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>24050015</v>
+        <v>24050023</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>772</v>
@@ -10122,7 +9945,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>24050016</v>
+        <v>24050024</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>774</v>
@@ -10133,7 +9956,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>24050017</v>
+        <v>24050025</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>776</v>
@@ -10144,7 +9967,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>24050018</v>
+        <v>24050026</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>778</v>
@@ -10155,7 +9978,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>24050019</v>
+        <v>24050027</v>
       </c>
       <c r="B402" s="6" t="s">
         <v>780</v>
@@ -10166,7 +9989,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>24050020</v>
+        <v>24050028</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>782</v>
@@ -10177,7 +10000,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>24050021</v>
+        <v>24050029</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>784</v>
@@ -10188,7 +10011,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>24050022</v>
+        <v>24050030</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>786</v>
@@ -10199,7 +10022,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>24050023</v>
+        <v>24050031</v>
       </c>
       <c r="B406" s="6" t="s">
         <v>788</v>
@@ -10210,7 +10033,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>24050024</v>
+        <v>24050032</v>
       </c>
       <c r="B407" s="6" t="s">
         <v>790</v>
@@ -10221,7 +10044,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>24050025</v>
+        <v>24050033</v>
       </c>
       <c r="B408" s="6" t="s">
         <v>792</v>
@@ -10232,7 +10055,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>24050026</v>
+        <v>24050034</v>
       </c>
       <c r="B409" s="6" t="s">
         <v>794</v>
@@ -10243,7 +10066,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>24050027</v>
+        <v>24050035</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>796</v>
@@ -10254,7 +10077,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>24050028</v>
+        <v>24050036</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>798</v>
@@ -10265,7 +10088,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>24050029</v>
+        <v>24050037</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>800</v>
@@ -10276,7 +10099,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>24050030</v>
+        <v>24050038</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>802</v>
@@ -10287,7 +10110,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>24050031</v>
+        <v>24050039</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>804</v>
@@ -10298,7 +10121,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>24050032</v>
+        <v>24050040</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>806</v>
@@ -10309,7 +10132,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>24050033</v>
+        <v>24050041</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>808</v>
@@ -10320,7 +10143,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>24050034</v>
+        <v>24050042</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>810</v>
@@ -10331,7 +10154,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>24050035</v>
+        <v>24050043</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>812</v>
@@ -10342,7 +10165,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>24050036</v>
+        <v>24050044</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>814</v>
@@ -10353,7 +10176,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>24050037</v>
+        <v>24050045</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>816</v>
@@ -10364,7 +10187,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>24050038</v>
+        <v>24050046</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>818</v>
@@ -10375,7 +10198,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>24050039</v>
+        <v>24050047</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>820</v>
@@ -10386,7 +10209,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>24050040</v>
+        <v>24050048</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>822</v>
@@ -10397,7 +10220,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>24050041</v>
+        <v>24050049</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>824</v>
@@ -10408,7 +10231,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>24050042</v>
+        <v>24050050</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>826</v>
@@ -10419,7 +10242,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>24050043</v>
+        <v>24050051</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>828</v>
@@ -10430,7 +10253,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>24050044</v>
+        <v>24050052</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>830</v>
@@ -10441,7 +10264,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>24050045</v>
+        <v>24050053</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>832</v>
@@ -10452,7 +10275,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>24050046</v>
+        <v>24050054</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>834</v>
@@ -10463,7 +10286,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>24050047</v>
+        <v>24050055</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>836</v>
@@ -10474,7 +10297,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>24050048</v>
+        <v>24050056</v>
       </c>
       <c r="B431" s="6" t="s">
         <v>838</v>
@@ -10485,7 +10308,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>24050049</v>
+        <v>24050057</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>840</v>
@@ -10496,7 +10319,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>24050050</v>
+        <v>24050058</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>842</v>
@@ -10507,7 +10330,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>24050051</v>
+        <v>24050059</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>844</v>
@@ -10518,7 +10341,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>24050052</v>
+        <v>24050060</v>
       </c>
       <c r="B435" s="6" t="s">
         <v>846</v>
@@ -10529,7 +10352,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>24050053</v>
+        <v>24050061</v>
       </c>
       <c r="B436" s="6" t="s">
         <v>848</v>
@@ -10540,7 +10363,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>24050054</v>
+        <v>24050062</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>850</v>
@@ -10551,7 +10374,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>24050055</v>
+        <v>24050063</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>852</v>
@@ -10562,7 +10385,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>24050056</v>
+        <v>24050064</v>
       </c>
       <c r="B439" s="6" t="s">
         <v>854</v>
@@ -10573,7 +10396,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>24050057</v>
+        <v>24050065</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>856</v>
@@ -10584,7 +10407,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>24050058</v>
+        <v>24050066</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>858</v>
@@ -10595,7 +10418,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>24050059</v>
+        <v>24050067</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>860</v>
@@ -10606,7 +10429,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>24050060</v>
+        <v>24050068</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>862</v>
@@ -10617,7 +10440,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>24050061</v>
+        <v>24050069</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>864</v>
@@ -10628,7 +10451,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>24050062</v>
+        <v>24050070</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>866</v>
@@ -10639,7 +10462,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>24050063</v>
+        <v>24050071</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>868</v>
@@ -10650,7 +10473,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>24050064</v>
+        <v>24050072</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>870</v>
@@ -10661,7 +10484,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>24050065</v>
+        <v>24050073</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>872</v>
@@ -10672,7 +10495,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>24050066</v>
+        <v>24050074</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>874</v>
@@ -10683,7 +10506,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>24050067</v>
+        <v>24050075</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>876</v>
@@ -10694,7 +10517,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>24050068</v>
+        <v>24050076</v>
       </c>
       <c r="B451" s="6" t="s">
         <v>878</v>
@@ -10705,7 +10528,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>24050069</v>
+        <v>24050077</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>880</v>
@@ -10716,7 +10539,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>24050070</v>
+        <v>24050078</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>882</v>
@@ -10727,7 +10550,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>24050071</v>
+        <v>24050079</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>884</v>
@@ -10738,7 +10561,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>24050072</v>
+        <v>24050080</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>886</v>
@@ -10749,7 +10572,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>24050073</v>
+        <v>24050081</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>888</v>
@@ -10760,7 +10583,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>24050074</v>
+        <v>24050082</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>890</v>
@@ -10771,7 +10594,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>24050075</v>
+        <v>24050083</v>
       </c>
       <c r="B458" s="6" t="s">
         <v>892</v>
@@ -10782,7 +10605,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>24050076</v>
+        <v>24050084</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>894</v>
@@ -10793,7 +10616,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>24050077</v>
+        <v>24050085</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>896</v>
@@ -10804,7 +10627,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>24050078</v>
+        <v>24050086</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>898</v>
@@ -10815,7 +10638,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>24050079</v>
+        <v>24050087</v>
       </c>
       <c r="B462" s="6" t="s">
         <v>900</v>
@@ -10826,7 +10649,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>24050080</v>
+        <v>24050088</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>902</v>
@@ -10837,7 +10660,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>24050081</v>
+        <v>24050089</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>904</v>
@@ -10848,7 +10671,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>24050082</v>
+        <v>24050090</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>906</v>
@@ -10859,7 +10682,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>24050083</v>
+        <v>24050091</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>908</v>
@@ -10870,7 +10693,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>24050084</v>
+        <v>24050092</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>910</v>
@@ -10881,7 +10704,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>24050085</v>
+        <v>24050093</v>
       </c>
       <c r="B468" s="6" t="s">
         <v>912</v>
@@ -10892,7 +10715,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>24050086</v>
+        <v>24050094</v>
       </c>
       <c r="B469" s="6" t="s">
         <v>914</v>
@@ -10903,7 +10726,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>24050087</v>
+        <v>24050095</v>
       </c>
       <c r="B470" s="6" t="s">
         <v>916</v>
@@ -10914,7 +10737,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>24050088</v>
+        <v>24050096</v>
       </c>
       <c r="B471" s="6" t="s">
         <v>918</v>
@@ -10925,7 +10748,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>24050089</v>
+        <v>24050097</v>
       </c>
       <c r="B472" s="6" t="s">
         <v>920</v>
@@ -10936,7 +10759,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>24050090</v>
+        <v>24050098</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>922</v>
@@ -10947,7 +10770,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>24050091</v>
+        <v>24050099</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>924</v>
@@ -10958,7 +10781,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>24050092</v>
+        <v>24050100</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>926</v>
@@ -10969,7 +10792,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>24050093</v>
+        <v>24050101</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>928</v>
@@ -10980,7 +10803,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>24050094</v>
+        <v>24050102</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>930</v>
@@ -10991,7 +10814,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>24050095</v>
+        <v>24050103</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>932</v>
@@ -11002,7 +10825,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>24050096</v>
+        <v>24050104</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>934</v>
@@ -11013,7 +10836,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>24050097</v>
+        <v>24050105</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>936</v>
@@ -11024,7 +10847,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>24050098</v>
+        <v>24050106</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>938</v>
@@ -11035,7 +10858,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>24050099</v>
+        <v>24050107</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>940</v>
@@ -11046,7 +10869,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>24050100</v>
+        <v>24050108</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>942</v>
@@ -11057,7 +10880,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>24050101</v>
+        <v>24050109</v>
       </c>
       <c r="B484" s="6" t="s">
         <v>944</v>
@@ -11068,7 +10891,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>24050102</v>
+        <v>24050110</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>946</v>
@@ -11079,7 +10902,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>24050103</v>
+        <v>24050111</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>948</v>
@@ -11090,7 +10913,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>24050104</v>
+        <v>24050112</v>
       </c>
       <c r="B487" s="6" t="s">
         <v>950</v>
@@ -11101,7 +10924,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>24050105</v>
+        <v>24050113</v>
       </c>
       <c r="B488" s="6" t="s">
         <v>952</v>
@@ -11112,7 +10935,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>24050106</v>
+        <v>24050114</v>
       </c>
       <c r="B489" s="6" t="s">
         <v>954</v>
@@ -11123,7 +10946,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>24050107</v>
+        <v>24050115</v>
       </c>
       <c r="B490" s="6" t="s">
         <v>956</v>
@@ -11134,7 +10957,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>24050108</v>
+        <v>24050116</v>
       </c>
       <c r="B491" s="6" t="s">
         <v>958</v>
@@ -11145,7 +10968,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>24050109</v>
+        <v>24050117</v>
       </c>
       <c r="B492" s="6" t="s">
         <v>960</v>
@@ -11156,7 +10979,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>24050110</v>
+        <v>24050118</v>
       </c>
       <c r="B493" s="6" t="s">
         <v>962</v>
@@ -11167,7 +10990,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>24050111</v>
+        <v>24050119</v>
       </c>
       <c r="B494" s="6" t="s">
         <v>964</v>
@@ -11178,7 +11001,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>24050112</v>
+        <v>24050120</v>
       </c>
       <c r="B495" s="6" t="s">
         <v>966</v>
@@ -11189,7 +11012,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>24050113</v>
+        <v>24050121</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>968</v>
@@ -11200,7 +11023,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>24050114</v>
+        <v>24050122</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>970</v>
@@ -11211,7 +11034,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>24050115</v>
+        <v>24050123</v>
       </c>
       <c r="B498" s="6" t="s">
         <v>972</v>
@@ -11222,7 +11045,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>24050116</v>
+        <v>24050124</v>
       </c>
       <c r="B499" s="6" t="s">
         <v>974</v>
@@ -11233,7 +11056,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>24050117</v>
+        <v>24050125</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>976</v>
@@ -11244,7 +11067,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>24050118</v>
+        <v>24050126</v>
       </c>
       <c r="B501" s="6" t="s">
         <v>978</v>
@@ -11255,7 +11078,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>24050119</v>
+        <v>24050127</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>980</v>
@@ -11266,7 +11089,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>24050120</v>
+        <v>24050128</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>982</v>
@@ -11277,7 +11100,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>24050121</v>
+        <v>24050129</v>
       </c>
       <c r="B504" s="6" t="s">
         <v>984</v>
@@ -11288,7 +11111,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>24050122</v>
+        <v>24050130</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>986</v>
@@ -11299,7 +11122,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>24050123</v>
+        <v>24050131</v>
       </c>
       <c r="B506" s="6" t="s">
         <v>988</v>
@@ -11310,7 +11133,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>24050124</v>
+        <v>24050132</v>
       </c>
       <c r="B507" s="6" t="s">
         <v>990</v>
@@ -11321,7 +11144,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>24050125</v>
+        <v>24050133</v>
       </c>
       <c r="B508" s="6" t="s">
         <v>992</v>
@@ -11332,7 +11155,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>24050126</v>
+        <v>24050134</v>
       </c>
       <c r="B509" s="6" t="s">
         <v>994</v>
@@ -11343,7 +11166,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>24050127</v>
+        <v>24050135</v>
       </c>
       <c r="B510" s="6" t="s">
         <v>996</v>
@@ -11354,7 +11177,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>24050128</v>
+        <v>24050136</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>998</v>
@@ -11365,7 +11188,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>24050129</v>
+        <v>24050137</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>1000</v>
@@ -11376,7 +11199,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>24050130</v>
+        <v>24050138</v>
       </c>
       <c r="B513" s="6" t="s">
         <v>1002</v>
@@ -11387,7 +11210,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>24050131</v>
+        <v>24050139</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>1004</v>
@@ -11398,7 +11221,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>24050132</v>
+        <v>24050140</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>1006</v>
@@ -11409,7 +11232,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>24050133</v>
+        <v>24050141</v>
       </c>
       <c r="B516" s="6" t="s">
         <v>1008</v>
@@ -11420,7 +11243,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>24050134</v>
+        <v>24050142</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>1010</v>
@@ -11431,7 +11254,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>24050135</v>
+        <v>24050143</v>
       </c>
       <c r="B518" s="6" t="s">
         <v>1012</v>
@@ -11442,7 +11265,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>24050136</v>
+        <v>24050144</v>
       </c>
       <c r="B519" s="6" t="s">
         <v>1014</v>
@@ -11453,7 +11276,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>24050137</v>
+        <v>24050145</v>
       </c>
       <c r="B520" s="6" t="s">
         <v>1016</v>
@@ -11464,7 +11287,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>24050138</v>
+        <v>24050146</v>
       </c>
       <c r="B521" s="6" t="s">
         <v>1018</v>
@@ -11475,7 +11298,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>24050139</v>
+        <v>24050147</v>
       </c>
       <c r="B522" s="6" t="s">
         <v>1020</v>
@@ -11486,7 +11309,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>24050140</v>
+        <v>24050148</v>
       </c>
       <c r="B523" s="6" t="s">
         <v>1022</v>
@@ -11497,7 +11320,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>24050141</v>
+        <v>24050149</v>
       </c>
       <c r="B524" s="6" t="s">
         <v>1024</v>
@@ -11508,7 +11331,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>24050142</v>
+        <v>24050150</v>
       </c>
       <c r="B525" s="6" t="s">
         <v>1026</v>
@@ -11519,7 +11342,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>24050143</v>
+        <v>24050151</v>
       </c>
       <c r="B526" s="6" t="s">
         <v>1028</v>
@@ -11530,7 +11353,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>24050144</v>
+        <v>24050152</v>
       </c>
       <c r="B527" s="6" t="s">
         <v>1030</v>
@@ -11541,7 +11364,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>24050145</v>
+        <v>24050153</v>
       </c>
       <c r="B528" s="6" t="s">
         <v>1032</v>
@@ -11552,7 +11375,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>24050146</v>
+        <v>24050154</v>
       </c>
       <c r="B529" s="6" t="s">
         <v>1034</v>
@@ -11563,7 +11386,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>24050147</v>
+        <v>24050155</v>
       </c>
       <c r="B530" s="6" t="s">
         <v>1036</v>
@@ -11574,7 +11397,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>24050148</v>
+        <v>24050156</v>
       </c>
       <c r="B531" s="6" t="s">
         <v>1038</v>
@@ -11585,7 +11408,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>24050149</v>
+        <v>24050157</v>
       </c>
       <c r="B532" s="6" t="s">
         <v>1040</v>
@@ -11596,7 +11419,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>24050150</v>
+        <v>24050158</v>
       </c>
       <c r="B533" s="6" t="s">
         <v>1042</v>
@@ -11607,7 +11430,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>24050151</v>
+        <v>24050159</v>
       </c>
       <c r="B534" s="6" t="s">
         <v>1044</v>
@@ -11618,7 +11441,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>24050152</v>
+        <v>24050160</v>
       </c>
       <c r="B535" s="6" t="s">
         <v>1046</v>
@@ -11629,7 +11452,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>24050153</v>
+        <v>24050161</v>
       </c>
       <c r="B536" s="6" t="s">
         <v>1048</v>
@@ -11640,7 +11463,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>24050154</v>
+        <v>24050162</v>
       </c>
       <c r="B537" s="6" t="s">
         <v>1050</v>
@@ -11651,7 +11474,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>24050155</v>
+        <v>24050163</v>
       </c>
       <c r="B538" s="6" t="s">
         <v>1052</v>
@@ -11662,7 +11485,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>24050156</v>
+        <v>24050164</v>
       </c>
       <c r="B539" s="6" t="s">
         <v>1054</v>
@@ -11673,7 +11496,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>24050157</v>
+        <v>24050165</v>
       </c>
       <c r="B540" s="6" t="s">
         <v>1056</v>
@@ -11684,7 +11507,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>24050158</v>
+        <v>24050166</v>
       </c>
       <c r="B541" s="6" t="s">
         <v>1058</v>
@@ -11693,22 +11516,22 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" ht="14.4" thickBot="1">
       <c r="A542">
-        <v>24050159</v>
+        <v>24050167</v>
       </c>
       <c r="B542" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C542" t="s">
+      <c r="C542" s="10" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" ht="14.4" thickTop="1">
       <c r="A543">
-        <v>24050160</v>
-      </c>
-      <c r="B543" s="6" t="s">
+        <v>24060001</v>
+      </c>
+      <c r="B543" s="12" t="s">
         <v>1062</v>
       </c>
       <c r="C543" t="s">
@@ -11717,7 +11540,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>24050161</v>
+        <v>24060002</v>
       </c>
       <c r="B544" s="6" t="s">
         <v>1064</v>
@@ -11728,7 +11551,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>24050162</v>
+        <v>24060003</v>
       </c>
       <c r="B545" s="6" t="s">
         <v>1066</v>
@@ -11739,7 +11562,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>24050163</v>
+        <v>24060004</v>
       </c>
       <c r="B546" s="6" t="s">
         <v>1068</v>
@@ -11750,7 +11573,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>24050164</v>
+        <v>24060005</v>
       </c>
       <c r="B547" s="6" t="s">
         <v>1070</v>
@@ -11761,7 +11584,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>24050165</v>
+        <v>24060006</v>
       </c>
       <c r="B548" s="6" t="s">
         <v>1072</v>
@@ -11772,7 +11595,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>24050166</v>
+        <v>24060007</v>
       </c>
       <c r="B549" s="6" t="s">
         <v>1074</v>
@@ -11782,21 +11605,21 @@
       </c>
     </row>
     <row r="550" spans="1:3">
-      <c r="A550" s="10">
-        <v>24050167</v>
+      <c r="A550">
+        <v>24060008</v>
       </c>
       <c r="B550" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="C550" s="10" t="s">
+      <c r="C550" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551">
-        <v>24060001</v>
-      </c>
-      <c r="B551" s="12" t="s">
+        <v>24060009</v>
+      </c>
+      <c r="B551" s="6" t="s">
         <v>1078</v>
       </c>
       <c r="C551" t="s">
@@ -11805,7 +11628,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552">
-        <v>24060002</v>
+        <v>24060010</v>
       </c>
       <c r="B552" s="6" t="s">
         <v>1080</v>
@@ -11816,7 +11639,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>24060003</v>
+        <v>24060011</v>
       </c>
       <c r="B553" s="6" t="s">
         <v>1082</v>
@@ -11827,7 +11650,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>24060004</v>
+        <v>24060012</v>
       </c>
       <c r="B554" s="6" t="s">
         <v>1084</v>
@@ -11838,7 +11661,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555">
-        <v>24060005</v>
+        <v>24060013</v>
       </c>
       <c r="B555" s="6" t="s">
         <v>1086</v>
@@ -11849,7 +11672,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556">
-        <v>24060006</v>
+        <v>24060014</v>
       </c>
       <c r="B556" s="6" t="s">
         <v>1088</v>
@@ -11860,7 +11683,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557">
-        <v>24060007</v>
+        <v>24060015</v>
       </c>
       <c r="B557" s="6" t="s">
         <v>1090</v>
@@ -11871,7 +11694,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>24060008</v>
+        <v>24060016</v>
       </c>
       <c r="B558" s="6" t="s">
         <v>1092</v>
@@ -11882,7 +11705,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559">
-        <v>24060009</v>
+        <v>24060017</v>
       </c>
       <c r="B559" s="6" t="s">
         <v>1094</v>
@@ -11893,7 +11716,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>24060010</v>
+        <v>24060018</v>
       </c>
       <c r="B560" s="6" t="s">
         <v>1096</v>
@@ -11904,7 +11727,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561">
-        <v>24060011</v>
+        <v>24060019</v>
       </c>
       <c r="B561" s="6" t="s">
         <v>1098</v>
@@ -11915,7 +11738,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562">
-        <v>24060012</v>
+        <v>24060020</v>
       </c>
       <c r="B562" s="6" t="s">
         <v>1100</v>
@@ -11926,7 +11749,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563">
-        <v>24060013</v>
+        <v>24060021</v>
       </c>
       <c r="B563" s="6" t="s">
         <v>1102</v>
@@ -11937,7 +11760,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564">
-        <v>24060014</v>
+        <v>24060022</v>
       </c>
       <c r="B564" s="6" t="s">
         <v>1104</v>
@@ -11948,7 +11771,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565">
-        <v>24060015</v>
+        <v>24060023</v>
       </c>
       <c r="B565" s="6" t="s">
         <v>1106</v>
@@ -11959,7 +11782,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566">
-        <v>24060016</v>
+        <v>24060024</v>
       </c>
       <c r="B566" s="6" t="s">
         <v>1108</v>
@@ -11970,7 +11793,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567">
-        <v>24060017</v>
+        <v>24060025</v>
       </c>
       <c r="B567" s="6" t="s">
         <v>1110</v>
@@ -11981,7 +11804,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568">
-        <v>24060018</v>
+        <v>24060026</v>
       </c>
       <c r="B568" s="6" t="s">
         <v>1112</v>
@@ -11992,7 +11815,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569">
-        <v>24060019</v>
+        <v>24060027</v>
       </c>
       <c r="B569" s="6" t="s">
         <v>1114</v>
@@ -12003,7 +11826,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570">
-        <v>24060020</v>
+        <v>24060028</v>
       </c>
       <c r="B570" s="6" t="s">
         <v>1116</v>
@@ -12014,7 +11837,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571">
-        <v>24060021</v>
+        <v>24060029</v>
       </c>
       <c r="B571" s="6" t="s">
         <v>1118</v>
@@ -12023,20 +11846,20 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" ht="14.4" thickBot="1">
       <c r="A572">
-        <v>24060022</v>
-      </c>
-      <c r="B572" s="6" t="s">
+        <v>24060030</v>
+      </c>
+      <c r="B572" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C572" s="10" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" ht="14.4" thickTop="1">
       <c r="A573">
-        <v>24060023</v>
+        <v>24070001</v>
       </c>
       <c r="B573" s="6" t="s">
         <v>1122</v>
@@ -12047,7 +11870,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574">
-        <v>24060024</v>
+        <v>24070002</v>
       </c>
       <c r="B574" s="6" t="s">
         <v>1124</v>
@@ -12058,7 +11881,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575">
-        <v>24060025</v>
+        <v>24070003</v>
       </c>
       <c r="B575" s="6" t="s">
         <v>1126</v>
@@ -12069,7 +11892,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576">
-        <v>24060026</v>
+        <v>24070004</v>
       </c>
       <c r="B576" s="6" t="s">
         <v>1128</v>
@@ -12080,7 +11903,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577">
-        <v>24060027</v>
+        <v>24070005</v>
       </c>
       <c r="B577" s="6" t="s">
         <v>1130</v>
@@ -12091,7 +11914,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578">
-        <v>24060028</v>
+        <v>24070006</v>
       </c>
       <c r="B578" s="6" t="s">
         <v>1132</v>
@@ -12102,7 +11925,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579">
-        <v>24060029</v>
+        <v>24070007</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>1134</v>
@@ -12112,19 +11935,19 @@
       </c>
     </row>
     <row r="580" spans="1:3">
-      <c r="A580" s="10">
-        <v>24060030</v>
-      </c>
-      <c r="B580" s="7" t="s">
+      <c r="A580">
+        <v>24070008</v>
+      </c>
+      <c r="B580" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="C580" s="10" t="s">
+      <c r="C580" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581">
-        <v>24070001</v>
+        <v>24070009</v>
       </c>
       <c r="B581" s="6" t="s">
         <v>1138</v>
@@ -12135,7 +11958,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582">
-        <v>24070002</v>
+        <v>24070010</v>
       </c>
       <c r="B582" s="6" t="s">
         <v>1140</v>
@@ -12146,7 +11969,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583">
-        <v>24070003</v>
+        <v>24070011</v>
       </c>
       <c r="B583" s="6" t="s">
         <v>1142</v>
@@ -12157,7 +11980,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584">
-        <v>24070004</v>
+        <v>24070012</v>
       </c>
       <c r="B584" s="6" t="s">
         <v>1144</v>
@@ -12168,7 +11991,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585">
-        <v>24070005</v>
+        <v>24070013</v>
       </c>
       <c r="B585" s="6" t="s">
         <v>1146</v>
@@ -12179,7 +12002,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586">
-        <v>24070006</v>
+        <v>24070014</v>
       </c>
       <c r="B586" s="6" t="s">
         <v>1148</v>
@@ -12190,7 +12013,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587">
-        <v>24070007</v>
+        <v>24070015</v>
       </c>
       <c r="B587" s="6" t="s">
         <v>1150</v>
@@ -12201,7 +12024,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588">
-        <v>24070008</v>
+        <v>24070016</v>
       </c>
       <c r="B588" s="6" t="s">
         <v>1152</v>
@@ -12212,7 +12035,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589">
-        <v>24070009</v>
+        <v>24070017</v>
       </c>
       <c r="B589" s="6" t="s">
         <v>1154</v>
@@ -12223,7 +12046,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590">
-        <v>24070010</v>
+        <v>24070018</v>
       </c>
       <c r="B590" s="6" t="s">
         <v>1156</v>
@@ -12234,7 +12057,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591">
-        <v>24070011</v>
+        <v>24070019</v>
       </c>
       <c r="B591" s="6" t="s">
         <v>1158</v>
@@ -12245,7 +12068,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592">
-        <v>24070012</v>
+        <v>24070020</v>
       </c>
       <c r="B592" s="6" t="s">
         <v>1160</v>
@@ -12256,7 +12079,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593">
-        <v>24070013</v>
+        <v>24070021</v>
       </c>
       <c r="B593" s="6" t="s">
         <v>1162</v>
@@ -12267,7 +12090,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594">
-        <v>24070014</v>
+        <v>24070022</v>
       </c>
       <c r="B594" s="6" t="s">
         <v>1164</v>
@@ -12278,7 +12101,7 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595">
-        <v>24070015</v>
+        <v>24070023</v>
       </c>
       <c r="B595" s="6" t="s">
         <v>1166</v>
@@ -12289,7 +12112,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596">
-        <v>24070016</v>
+        <v>24070024</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>1168</v>
@@ -12300,7 +12123,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597">
-        <v>24070017</v>
+        <v>24070025</v>
       </c>
       <c r="B597" s="6" t="s">
         <v>1170</v>
@@ -12311,7 +12134,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598">
-        <v>24070018</v>
+        <v>24070026</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>1172</v>
@@ -12322,7 +12145,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599">
-        <v>24070019</v>
+        <v>24070027</v>
       </c>
       <c r="B599" s="6" t="s">
         <v>1174</v>
@@ -12333,7 +12156,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600">
-        <v>24070020</v>
+        <v>24070028</v>
       </c>
       <c r="B600" s="6" t="s">
         <v>1176</v>
@@ -12344,7 +12167,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601">
-        <v>24070021</v>
+        <v>24070029</v>
       </c>
       <c r="B601" s="6" t="s">
         <v>1178</v>
@@ -12355,7 +12178,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602">
-        <v>24070022</v>
+        <v>24070030</v>
       </c>
       <c r="B602" s="6" t="s">
         <v>1180</v>
@@ -12366,7 +12189,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603">
-        <v>24070023</v>
+        <v>24070031</v>
       </c>
       <c r="B603" s="6" t="s">
         <v>1182</v>
@@ -12377,7 +12200,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604">
-        <v>24070024</v>
+        <v>24070032</v>
       </c>
       <c r="B604" s="6" t="s">
         <v>1184</v>
@@ -12388,7 +12211,7 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605">
-        <v>24070025</v>
+        <v>24070033</v>
       </c>
       <c r="B605" s="6" t="s">
         <v>1186</v>
@@ -12399,7 +12222,7 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606">
-        <v>24070026</v>
+        <v>24070034</v>
       </c>
       <c r="B606" s="6" t="s">
         <v>1188</v>
@@ -12410,7 +12233,7 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607">
-        <v>24070027</v>
+        <v>24070035</v>
       </c>
       <c r="B607" s="6" t="s">
         <v>1190</v>
@@ -12421,7 +12244,7 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608">
-        <v>24070028</v>
+        <v>24070036</v>
       </c>
       <c r="B608" s="6" t="s">
         <v>1192</v>
@@ -12432,7 +12255,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609">
-        <v>24070029</v>
+        <v>24070037</v>
       </c>
       <c r="B609" s="6" t="s">
         <v>1194</v>
@@ -12443,7 +12266,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610">
-        <v>24070030</v>
+        <v>24070038</v>
       </c>
       <c r="B610" s="6" t="s">
         <v>1196</v>
@@ -12454,7 +12277,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611">
-        <v>24070031</v>
+        <v>24070039</v>
       </c>
       <c r="B611" s="6" t="s">
         <v>1198</v>
@@ -12465,7 +12288,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612">
-        <v>24070032</v>
+        <v>24070040</v>
       </c>
       <c r="B612" s="6" t="s">
         <v>1200</v>
@@ -12476,7 +12299,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613">
-        <v>24070033</v>
+        <v>24070041</v>
       </c>
       <c r="B613" s="6" t="s">
         <v>1202</v>
@@ -12487,7 +12310,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614">
-        <v>24070034</v>
+        <v>24070042</v>
       </c>
       <c r="B614" s="6" t="s">
         <v>1204</v>
@@ -12498,7 +12321,7 @@
     </row>
     <row r="615" spans="1:3">
       <c r="A615">
-        <v>24070035</v>
+        <v>24070043</v>
       </c>
       <c r="B615" s="6" t="s">
         <v>1206</v>
@@ -12509,7 +12332,7 @@
     </row>
     <row r="616" spans="1:3">
       <c r="A616">
-        <v>24070036</v>
+        <v>24070044</v>
       </c>
       <c r="B616" s="6" t="s">
         <v>1208</v>
@@ -12520,7 +12343,7 @@
     </row>
     <row r="617" spans="1:3">
       <c r="A617">
-        <v>24070037</v>
+        <v>24070045</v>
       </c>
       <c r="B617" s="6" t="s">
         <v>1210</v>
@@ -12531,7 +12354,7 @@
     </row>
     <row r="618" spans="1:3">
       <c r="A618">
-        <v>24070038</v>
+        <v>24070046</v>
       </c>
       <c r="B618" s="6" t="s">
         <v>1212</v>
@@ -12542,7 +12365,7 @@
     </row>
     <row r="619" spans="1:3">
       <c r="A619">
-        <v>24070039</v>
+        <v>24070047</v>
       </c>
       <c r="B619" s="6" t="s">
         <v>1214</v>
@@ -12553,7 +12376,7 @@
     </row>
     <row r="620" spans="1:3">
       <c r="A620">
-        <v>24070040</v>
+        <v>24070048</v>
       </c>
       <c r="B620" s="6" t="s">
         <v>1216</v>
@@ -12564,7 +12387,7 @@
     </row>
     <row r="621" spans="1:3">
       <c r="A621">
-        <v>24070041</v>
+        <v>24070049</v>
       </c>
       <c r="B621" s="6" t="s">
         <v>1218</v>
@@ -12575,7 +12398,7 @@
     </row>
     <row r="622" spans="1:3">
       <c r="A622">
-        <v>24070042</v>
+        <v>24070050</v>
       </c>
       <c r="B622" s="6" t="s">
         <v>1220</v>
@@ -12586,7 +12409,7 @@
     </row>
     <row r="623" spans="1:3">
       <c r="A623">
-        <v>24070043</v>
+        <v>24070051</v>
       </c>
       <c r="B623" s="6" t="s">
         <v>1222</v>
@@ -12597,7 +12420,7 @@
     </row>
     <row r="624" spans="1:3">
       <c r="A624">
-        <v>24070044</v>
+        <v>24070052</v>
       </c>
       <c r="B624" s="6" t="s">
         <v>1224</v>
@@ -12608,7 +12431,7 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625">
-        <v>24070045</v>
+        <v>24070053</v>
       </c>
       <c r="B625" s="6" t="s">
         <v>1226</v>
@@ -12619,7 +12442,7 @@
     </row>
     <row r="626" spans="1:3">
       <c r="A626">
-        <v>24070046</v>
+        <v>24070054</v>
       </c>
       <c r="B626" s="6" t="s">
         <v>1228</v>
@@ -12630,7 +12453,7 @@
     </row>
     <row r="627" spans="1:3">
       <c r="A627">
-        <v>24070047</v>
+        <v>24070055</v>
       </c>
       <c r="B627" s="6" t="s">
         <v>1230</v>
@@ -12641,7 +12464,7 @@
     </row>
     <row r="628" spans="1:3">
       <c r="A628">
-        <v>24070048</v>
+        <v>24070056</v>
       </c>
       <c r="B628" s="6" t="s">
         <v>1232</v>
@@ -12652,7 +12475,7 @@
     </row>
     <row r="629" spans="1:3">
       <c r="A629">
-        <v>24070049</v>
+        <v>24070057</v>
       </c>
       <c r="B629" s="6" t="s">
         <v>1234</v>
@@ -12663,7 +12486,7 @@
     </row>
     <row r="630" spans="1:3">
       <c r="A630">
-        <v>24070050</v>
+        <v>24070058</v>
       </c>
       <c r="B630" s="6" t="s">
         <v>1236</v>
@@ -12674,7 +12497,7 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631">
-        <v>24070051</v>
+        <v>24070059</v>
       </c>
       <c r="B631" s="6" t="s">
         <v>1238</v>
@@ -12685,7 +12508,7 @@
     </row>
     <row r="632" spans="1:3">
       <c r="A632">
-        <v>24070052</v>
+        <v>24070060</v>
       </c>
       <c r="B632" s="6" t="s">
         <v>1240</v>
@@ -12696,7 +12519,7 @@
     </row>
     <row r="633" spans="1:3">
       <c r="A633">
-        <v>24070053</v>
+        <v>24070061</v>
       </c>
       <c r="B633" s="6" t="s">
         <v>1242</v>
@@ -12707,7 +12530,7 @@
     </row>
     <row r="634" spans="1:3">
       <c r="A634">
-        <v>24070054</v>
+        <v>24070062</v>
       </c>
       <c r="B634" s="6" t="s">
         <v>1244</v>
@@ -12718,7 +12541,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635">
-        <v>24070055</v>
+        <v>24070063</v>
       </c>
       <c r="B635" s="6" t="s">
         <v>1246</v>
@@ -12729,7 +12552,7 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636">
-        <v>24070056</v>
+        <v>24070064</v>
       </c>
       <c r="B636" s="6" t="s">
         <v>1248</v>
@@ -12740,7 +12563,7 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637">
-        <v>24070057</v>
+        <v>24070065</v>
       </c>
       <c r="B637" s="6" t="s">
         <v>1250</v>
@@ -12751,7 +12574,7 @@
     </row>
     <row r="638" spans="1:3">
       <c r="A638">
-        <v>24070058</v>
+        <v>24070066</v>
       </c>
       <c r="B638" s="6" t="s">
         <v>1252</v>
@@ -12762,7 +12585,7 @@
     </row>
     <row r="639" spans="1:3">
       <c r="A639">
-        <v>24070059</v>
+        <v>24070067</v>
       </c>
       <c r="B639" s="6" t="s">
         <v>1254</v>
@@ -12773,7 +12596,7 @@
     </row>
     <row r="640" spans="1:3">
       <c r="A640">
-        <v>24070060</v>
+        <v>24070068</v>
       </c>
       <c r="B640" s="6" t="s">
         <v>1256</v>
@@ -12784,7 +12607,7 @@
     </row>
     <row r="641" spans="1:3">
       <c r="A641">
-        <v>24070061</v>
+        <v>24070069</v>
       </c>
       <c r="B641" s="6" t="s">
         <v>1258</v>
@@ -12795,7 +12618,7 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642">
-        <v>24070062</v>
+        <v>24070070</v>
       </c>
       <c r="B642" s="6" t="s">
         <v>1260</v>
@@ -12806,7 +12629,7 @@
     </row>
     <row r="643" spans="1:3">
       <c r="A643">
-        <v>24070063</v>
+        <v>24070071</v>
       </c>
       <c r="B643" s="6" t="s">
         <v>1262</v>
@@ -12817,7 +12640,7 @@
     </row>
     <row r="644" spans="1:3">
       <c r="A644">
-        <v>24070064</v>
+        <v>24070072</v>
       </c>
       <c r="B644" s="6" t="s">
         <v>1264</v>
@@ -12828,7 +12651,7 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645">
-        <v>24070065</v>
+        <v>24070073</v>
       </c>
       <c r="B645" s="6" t="s">
         <v>1266</v>
@@ -12839,7 +12662,7 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646">
-        <v>24070066</v>
+        <v>24070074</v>
       </c>
       <c r="B646" s="6" t="s">
         <v>1268</v>
@@ -12850,7 +12673,7 @@
     </row>
     <row r="647" spans="1:3">
       <c r="A647">
-        <v>24070067</v>
+        <v>24070075</v>
       </c>
       <c r="B647" s="6" t="s">
         <v>1270</v>
@@ -12861,7 +12684,7 @@
     </row>
     <row r="648" spans="1:3">
       <c r="A648">
-        <v>24070068</v>
+        <v>24070076</v>
       </c>
       <c r="B648" s="6" t="s">
         <v>1272</v>
@@ -12872,7 +12695,7 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649">
-        <v>24070069</v>
+        <v>24070077</v>
       </c>
       <c r="B649" s="6" t="s">
         <v>1274</v>
@@ -12883,7 +12706,7 @@
     </row>
     <row r="650" spans="1:3">
       <c r="A650">
-        <v>24070070</v>
+        <v>24070078</v>
       </c>
       <c r="B650" s="6" t="s">
         <v>1276</v>
@@ -12894,7 +12717,7 @@
     </row>
     <row r="651" spans="1:3">
       <c r="A651">
-        <v>24070071</v>
+        <v>24070079</v>
       </c>
       <c r="B651" s="6" t="s">
         <v>1278</v>
@@ -12905,7 +12728,7 @@
     </row>
     <row r="652" spans="1:3">
       <c r="A652">
-        <v>24070072</v>
+        <v>24070080</v>
       </c>
       <c r="B652" s="6" t="s">
         <v>1280</v>
@@ -12916,7 +12739,7 @@
     </row>
     <row r="653" spans="1:3">
       <c r="A653">
-        <v>24070073</v>
+        <v>24070081</v>
       </c>
       <c r="B653" s="6" t="s">
         <v>1282</v>
@@ -12927,7 +12750,7 @@
     </row>
     <row r="654" spans="1:3">
       <c r="A654">
-        <v>24070074</v>
+        <v>24070082</v>
       </c>
       <c r="B654" s="6" t="s">
         <v>1284</v>
@@ -12938,7 +12761,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655">
-        <v>24070075</v>
+        <v>24070083</v>
       </c>
       <c r="B655" s="6" t="s">
         <v>1286</v>
@@ -12949,7 +12772,7 @@
     </row>
     <row r="656" spans="1:3">
       <c r="A656">
-        <v>24070076</v>
+        <v>24070084</v>
       </c>
       <c r="B656" s="6" t="s">
         <v>1288</v>
@@ -12960,7 +12783,7 @@
     </row>
     <row r="657" spans="1:3">
       <c r="A657">
-        <v>24070077</v>
+        <v>24070085</v>
       </c>
       <c r="B657" s="6" t="s">
         <v>1290</v>
@@ -12971,7 +12794,7 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658">
-        <v>24070078</v>
+        <v>24070086</v>
       </c>
       <c r="B658" s="6" t="s">
         <v>1292</v>
@@ -12982,7 +12805,7 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659">
-        <v>24070079</v>
+        <v>24070087</v>
       </c>
       <c r="B659" s="6" t="s">
         <v>1294</v>
@@ -12993,7 +12816,7 @@
     </row>
     <row r="660" spans="1:3">
       <c r="A660">
-        <v>24070080</v>
+        <v>24070088</v>
       </c>
       <c r="B660" s="6" t="s">
         <v>1296</v>
@@ -13004,7 +12827,7 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661">
-        <v>24070081</v>
+        <v>24070089</v>
       </c>
       <c r="B661" s="6" t="s">
         <v>1298</v>
@@ -13015,7 +12838,7 @@
     </row>
     <row r="662" spans="1:3">
       <c r="A662">
-        <v>24070082</v>
+        <v>24070090</v>
       </c>
       <c r="B662" s="6" t="s">
         <v>1300</v>
@@ -13026,7 +12849,7 @@
     </row>
     <row r="663" spans="1:3">
       <c r="A663">
-        <v>24070083</v>
+        <v>24070091</v>
       </c>
       <c r="B663" s="6" t="s">
         <v>1302</v>
@@ -13037,7 +12860,7 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664">
-        <v>24070084</v>
+        <v>24070092</v>
       </c>
       <c r="B664" s="6" t="s">
         <v>1304</v>
@@ -13048,7 +12871,7 @@
     </row>
     <row r="665" spans="1:3">
       <c r="A665">
-        <v>24070085</v>
+        <v>24070093</v>
       </c>
       <c r="B665" s="6" t="s">
         <v>1306</v>
@@ -13059,7 +12882,7 @@
     </row>
     <row r="666" spans="1:3">
       <c r="A666">
-        <v>24070086</v>
+        <v>24070094</v>
       </c>
       <c r="B666" s="6" t="s">
         <v>1308</v>
@@ -13068,22 +12891,22 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" ht="14.4" thickBot="1">
       <c r="A667">
-        <v>24070087</v>
-      </c>
-      <c r="B667" s="6" t="s">
+        <v>24070095</v>
+      </c>
+      <c r="B667" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="C667" t="s">
+      <c r="C667" s="13" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" ht="14.4" thickTop="1">
       <c r="A668">
-        <v>24070088</v>
-      </c>
-      <c r="B668" s="6" t="s">
+        <v>24080001</v>
+      </c>
+      <c r="B668" s="8" t="s">
         <v>1312</v>
       </c>
       <c r="C668" t="s">
@@ -13092,9 +12915,9 @@
     </row>
     <row r="669" spans="1:3">
       <c r="A669">
-        <v>24070089</v>
-      </c>
-      <c r="B669" s="6" t="s">
+        <v>24080002</v>
+      </c>
+      <c r="B669" s="8" t="s">
         <v>1314</v>
       </c>
       <c r="C669" t="s">
@@ -13103,326 +12926,326 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670">
-        <v>24070090</v>
-      </c>
-      <c r="B670" s="6" t="s">
+        <v>24080003</v>
+      </c>
+      <c r="B670" s="8" t="s">
         <v>1316</v>
       </c>
-      <c r="C670" t="s">
-        <v>1317</v>
+      <c r="C670" s="22" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671">
-        <v>24070091</v>
-      </c>
-      <c r="B671" s="6" t="s">
+        <v>24080004</v>
+      </c>
+      <c r="B671" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C671" t="s">
         <v>1318</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672">
-        <v>24070092</v>
-      </c>
-      <c r="B672" s="6" t="s">
+        <v>24080005</v>
+      </c>
+      <c r="B672" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C672" t="s">
         <v>1320</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="673" spans="1:3">
       <c r="A673">
-        <v>24070093</v>
-      </c>
-      <c r="B673" s="6" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1323</v>
+        <v>24080006</v>
+      </c>
+      <c r="B673" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C673" s="22" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="674" spans="1:3">
       <c r="A674">
-        <v>24070094</v>
-      </c>
-      <c r="B674" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1325</v>
+        <v>24080007</v>
+      </c>
+      <c r="B674" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C674" s="22" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675">
-        <v>24070095</v>
-      </c>
-      <c r="B675" s="6" t="s">
-        <v>1326</v>
+        <v>24080008</v>
+      </c>
+      <c r="B675" s="8" t="s">
+        <v>1323</v>
       </c>
       <c r="C675" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="676" spans="1:3">
-      <c r="A676" s="13">
-        <v>24070096</v>
-      </c>
-      <c r="B676" s="7" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C676" s="13" t="s">
-        <v>1329</v>
+      <c r="A676">
+        <v>24080009</v>
+      </c>
+      <c r="B676" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C676" s="22" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677">
-        <v>24080001</v>
+        <v>24080010</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1331</v>
+        <v>1326</v>
+      </c>
+      <c r="C677" s="22" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="678" spans="1:3">
       <c r="A678">
-        <v>24080002</v>
+        <v>24080011</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="C678" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="679" spans="1:3">
       <c r="A679">
-        <v>24080003</v>
+        <v>24080012</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C679" s="22" t="s">
-        <v>1625</v>
+        <v>1329</v>
+      </c>
+      <c r="C679" s="20" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="680" spans="1:3">
       <c r="A680">
-        <v>24080004</v>
+        <v>24080013</v>
       </c>
       <c r="B680" s="8" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="C680" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="681" spans="1:3">
       <c r="A681">
-        <v>24080005</v>
+        <v>24080014</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C681" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="682" spans="1:3">
       <c r="A682">
-        <v>24080006</v>
+        <v>24080015</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C682" s="22" t="s">
-        <v>1626</v>
+        <v>1334</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="683" spans="1:3">
       <c r="A683">
-        <v>24080007</v>
+        <v>24080016</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C683" s="22" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684">
-        <v>24080008</v>
+        <v>24080017</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C684" t="s">
-        <v>1342</v>
+        <v>1337</v>
+      </c>
+      <c r="C684" s="22" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="A685">
-        <v>24080009</v>
+        <v>24080018</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C685" s="22" t="s">
-        <v>1628</v>
+        <v>1338</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="A686">
-        <v>24080010</v>
+        <v>24080019</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C686" s="22" t="s">
-        <v>1630</v>
+        <v>1340</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687">
-        <v>24080011</v>
+        <v>24080020</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C687" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688">
-        <v>24080012</v>
+        <v>24080021</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C688" s="20" t="s">
-        <v>1629</v>
+        <v>1344</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="689" spans="1:3">
       <c r="A689">
-        <v>24080013</v>
+        <v>24080022</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1349</v>
+        <v>1346</v>
+      </c>
+      <c r="C689" s="20" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="A690">
-        <v>24080014</v>
+        <v>24080023</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C690" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="A691">
-        <v>24080015</v>
+        <v>24080024</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C691" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692">
-        <v>24080016</v>
+        <v>24080025</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C692" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="693" spans="1:3">
       <c r="A693">
-        <v>24080017</v>
+        <v>24080026</v>
       </c>
       <c r="B693" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C693" s="14" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" ht="15">
+      <c r="A694">
+        <v>24080027</v>
+      </c>
+      <c r="B694" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C694" s="15" t="s">
         <v>1356</v>
       </c>
-      <c r="C693" s="22" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3">
-      <c r="A694">
-        <v>24080018</v>
-      </c>
-      <c r="B694" s="8" t="s">
+    </row>
+    <row r="695" spans="1:3" ht="15">
+      <c r="A695">
+        <v>24080028</v>
+      </c>
+      <c r="B695" s="8" t="s">
         <v>1357</v>
       </c>
-      <c r="C694" s="22" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3">
-      <c r="A695">
-        <v>24080019</v>
-      </c>
-      <c r="B695" s="8" t="s">
+      <c r="C695" s="15" t="s">
         <v>1358</v>
       </c>
-      <c r="C695" s="22" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3">
+    </row>
+    <row r="696" spans="1:3" ht="15">
       <c r="A696">
-        <v>24080020</v>
+        <v>24080029</v>
       </c>
       <c r="B696" s="8" t="s">
         <v>1359</v>
       </c>
-      <c r="C696" t="s">
+      <c r="C696" s="15" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" ht="15">
       <c r="A697">
-        <v>24080021</v>
+        <v>24080030</v>
       </c>
       <c r="B697" s="8" t="s">
         <v>1361</v>
       </c>
-      <c r="C697" t="s">
+      <c r="C697" s="15" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" ht="15">
       <c r="A698">
-        <v>24080022</v>
+        <v>24080031</v>
       </c>
       <c r="B698" s="8" t="s">
         <v>1363</v>
       </c>
-      <c r="C698" t="s">
+      <c r="C698" s="15" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="699" spans="1:3">
       <c r="A699">
-        <v>24080023</v>
+        <v>24080032</v>
       </c>
       <c r="B699" s="8" t="s">
         <v>1365</v>
@@ -13433,18 +13256,18 @@
     </row>
     <row r="700" spans="1:3">
       <c r="A700">
-        <v>24080024</v>
+        <v>24080033</v>
       </c>
       <c r="B700" s="8" t="s">
         <v>1367</v>
       </c>
-      <c r="C700" s="20" t="s">
-        <v>1633</v>
+      <c r="C700" s="22" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="701" spans="1:3">
       <c r="A701">
-        <v>24080025</v>
+        <v>24080034</v>
       </c>
       <c r="B701" s="8" t="s">
         <v>1368</v>
@@ -13453,20 +13276,20 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" ht="15">
       <c r="A702">
-        <v>24080026</v>
+        <v>24080035</v>
       </c>
       <c r="B702" s="8" t="s">
         <v>1370</v>
       </c>
-      <c r="C702" t="s">
+      <c r="C702" s="15" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="703" spans="1:3">
       <c r="A703">
-        <v>24080027</v>
+        <v>24080036</v>
       </c>
       <c r="B703" s="8" t="s">
         <v>1372</v>
@@ -13475,31 +13298,31 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" ht="15">
       <c r="A704">
-        <v>24080028</v>
+        <v>24080037</v>
       </c>
       <c r="B704" s="8" t="s">
         <v>1374</v>
       </c>
-      <c r="C704" s="22" t="s">
-        <v>1641</v>
+      <c r="C704" s="15" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="705" spans="1:3">
       <c r="A705">
-        <v>24080029</v>
+        <v>24080038</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C705" s="14" t="s">
         <v>1376</v>
+      </c>
+      <c r="C705" s="22" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="706" spans="1:3" ht="15">
       <c r="A706">
-        <v>24080030</v>
+        <v>24080039</v>
       </c>
       <c r="B706" s="8" t="s">
         <v>1377</v>
@@ -13510,7 +13333,7 @@
     </row>
     <row r="707" spans="1:3" ht="15">
       <c r="A707">
-        <v>24080031</v>
+        <v>24080040</v>
       </c>
       <c r="B707" s="8" t="s">
         <v>1379</v>
@@ -13521,7 +13344,7 @@
     </row>
     <row r="708" spans="1:3" ht="15">
       <c r="A708">
-        <v>24080032</v>
+        <v>24080041</v>
       </c>
       <c r="B708" s="8" t="s">
         <v>1381</v>
@@ -13532,7 +13355,7 @@
     </row>
     <row r="709" spans="1:3" ht="15">
       <c r="A709">
-        <v>24080033</v>
+        <v>24080042</v>
       </c>
       <c r="B709" s="8" t="s">
         <v>1383</v>
@@ -13543,7 +13366,7 @@
     </row>
     <row r="710" spans="1:3" ht="15">
       <c r="A710">
-        <v>24080034</v>
+        <v>24080043</v>
       </c>
       <c r="B710" s="8" t="s">
         <v>1385</v>
@@ -13552,218 +13375,218 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" ht="15">
       <c r="A711">
-        <v>24080035</v>
+        <v>24080044</v>
       </c>
       <c r="B711" s="8" t="s">
         <v>1387</v>
       </c>
-      <c r="C711" t="s">
-        <v>1388</v>
+      <c r="C711" s="15" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="712" spans="1:3">
       <c r="A712">
-        <v>24080036</v>
+        <v>24080045</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C712" s="22" t="s">
-        <v>1640</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="A713">
-        <v>24080037</v>
+        <v>24080046</v>
       </c>
       <c r="B713" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C713" t="s">
         <v>1390</v>
       </c>
-      <c r="C713" t="s">
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714">
+        <v>24080047</v>
+      </c>
+      <c r="B714" s="8" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="714" spans="1:3" ht="15">
-      <c r="A714">
-        <v>24080038</v>
-      </c>
-      <c r="B714" s="8" t="s">
+      <c r="C714" t="s">
         <v>1392</v>
-      </c>
-      <c r="C714" s="15" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="715" spans="1:3">
       <c r="A715">
-        <v>24080039</v>
+        <v>24080048</v>
       </c>
       <c r="B715" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C715" t="s">
         <v>1394</v>
       </c>
-      <c r="C715" t="s">
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716">
+        <v>24080049</v>
+      </c>
+      <c r="B716" s="8" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="716" spans="1:3" ht="15">
-      <c r="A716">
-        <v>24080040</v>
-      </c>
-      <c r="B716" s="8" t="s">
+      <c r="C716" t="s">
         <v>1396</v>
-      </c>
-      <c r="C716" s="15" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="717" spans="1:3">
       <c r="A717">
-        <v>24080041</v>
+        <v>24080050</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C717" s="22" t="s">
-        <v>1639</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="718" spans="1:3" ht="15">
       <c r="A718">
-        <v>24080042</v>
+        <v>24080051</v>
       </c>
       <c r="B718" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C718" s="15" t="s">
         <v>1399</v>
       </c>
-      <c r="C718" s="15" t="s">
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719">
+        <v>24080052</v>
+      </c>
+      <c r="B719" s="8" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="719" spans="1:3" ht="15">
-      <c r="A719">
-        <v>24080043</v>
-      </c>
-      <c r="B719" s="8" t="s">
+      <c r="C719" t="s">
         <v>1401</v>
       </c>
-      <c r="C719" s="15" t="s">
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720">
+        <v>24080053</v>
+      </c>
+      <c r="B720" s="8" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="720" spans="1:3" ht="15">
-      <c r="A720">
-        <v>24080044</v>
-      </c>
-      <c r="B720" s="8" t="s">
+      <c r="C720" t="s">
         <v>1403</v>
       </c>
-      <c r="C720" s="15" t="s">
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721">
+        <v>24080054</v>
+      </c>
+      <c r="B721" s="8" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="721" spans="1:3" ht="15">
-      <c r="A721">
-        <v>24080045</v>
-      </c>
-      <c r="B721" s="8" t="s">
+      <c r="C721" t="s">
         <v>1405</v>
       </c>
-      <c r="C721" s="15" t="s">
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722">
+        <v>24080055</v>
+      </c>
+      <c r="B722" s="8" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="722" spans="1:3" ht="15">
-      <c r="A722">
-        <v>24080046</v>
-      </c>
-      <c r="B722" s="8" t="s">
+      <c r="C722" s="22" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723">
+        <v>24080056</v>
+      </c>
+      <c r="B723" s="8" t="s">
         <v>1407</v>
       </c>
-      <c r="C722" s="15" t="s">
+      <c r="C723" t="s">
         <v>1408</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3" ht="15">
-      <c r="A723">
-        <v>24080047</v>
-      </c>
-      <c r="B723" s="8" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C723" s="15" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724">
-        <v>24080048</v>
+        <v>24080057</v>
       </c>
       <c r="B724" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C724" t="s">
         <v>1410</v>
       </c>
-      <c r="C724" s="22" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3">
+    </row>
+    <row r="725" spans="1:3" ht="15">
       <c r="A725">
-        <v>24080049</v>
+        <v>24080058</v>
       </c>
       <c r="B725" s="8" t="s">
         <v>1411</v>
       </c>
-      <c r="C725" t="s">
+      <c r="C725" s="15" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="726" spans="1:3">
       <c r="A726">
-        <v>24080050</v>
+        <v>24080059</v>
       </c>
       <c r="B726" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="C726" t="s">
-        <v>1414</v>
+      <c r="C726" s="22" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="727" spans="1:3">
       <c r="A727">
-        <v>24080051</v>
+        <v>24080060</v>
       </c>
       <c r="B727" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C727" t="s">
         <v>1415</v>
       </c>
-      <c r="C727" t="s">
+    </row>
+    <row r="728" spans="1:3" ht="15">
+      <c r="A728">
+        <v>24080061</v>
+      </c>
+      <c r="B728" s="8" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="728" spans="1:3">
-      <c r="A728">
-        <v>24080052</v>
-      </c>
-      <c r="B728" s="8" t="s">
+      <c r="C728" s="15" t="s">
         <v>1417</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="729" spans="1:3">
       <c r="A729">
-        <v>24080053</v>
+        <v>24080062</v>
       </c>
       <c r="B729" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C729" t="s">
         <v>1419</v>
-      </c>
-      <c r="C729" s="22" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="730" spans="1:3" ht="15">
       <c r="A730">
-        <v>24080054</v>
+        <v>24080063</v>
       </c>
       <c r="B730" s="8" t="s">
         <v>1420</v>
@@ -13774,7 +13597,7 @@
     </row>
     <row r="731" spans="1:3">
       <c r="A731">
-        <v>24080055</v>
+        <v>24080064</v>
       </c>
       <c r="B731" s="8" t="s">
         <v>1422</v>
@@ -13783,44 +13606,44 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" ht="14.4" thickBot="1">
       <c r="A732">
-        <v>24080056</v>
-      </c>
-      <c r="B732" s="8" t="s">
+        <v>24080065</v>
+      </c>
+      <c r="B732" s="11" t="s">
         <v>1424</v>
       </c>
-      <c r="C732" t="s">
+      <c r="C732" s="22" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" ht="14.4" thickTop="1">
+      <c r="A733">
+        <v>24090001</v>
+      </c>
+      <c r="B733" s="6" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="733" spans="1:3">
-      <c r="A733">
-        <v>24080057</v>
-      </c>
-      <c r="B733" s="8" t="s">
+      <c r="C733" t="s">
         <v>1426</v>
-      </c>
-      <c r="C733" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="734" spans="1:3">
       <c r="A734">
-        <v>24080058</v>
-      </c>
-      <c r="B734" s="8" t="s">
+        <v>24090002</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C734" t="s">
         <v>1428</v>
-      </c>
-      <c r="C734" s="22" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="735" spans="1:3">
       <c r="A735">
-        <v>24080059</v>
-      </c>
-      <c r="B735" s="8" t="s">
+        <v>24090003</v>
+      </c>
+      <c r="B735" s="6" t="s">
         <v>1429</v>
       </c>
       <c r="C735" t="s">
@@ -13829,959 +13652,816 @@
     </row>
     <row r="736" spans="1:3">
       <c r="A736">
-        <v>24080060</v>
-      </c>
-      <c r="B736" s="8" t="s">
+        <v>24090004</v>
+      </c>
+      <c r="B736" s="6" t="s">
         <v>1431</v>
       </c>
       <c r="C736" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="15">
+    <row r="737" spans="1:3">
       <c r="A737">
-        <v>24080061</v>
-      </c>
-      <c r="B737" s="8" t="s">
+        <v>24090005</v>
+      </c>
+      <c r="B737" s="6" t="s">
         <v>1433</v>
       </c>
-      <c r="C737" s="15" t="s">
+      <c r="C737" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="738" spans="1:3">
       <c r="A738">
-        <v>24080062</v>
-      </c>
-      <c r="B738" s="8" t="s">
+        <v>24090006</v>
+      </c>
+      <c r="B738" s="6" t="s">
         <v>1435</v>
       </c>
-      <c r="C738" s="22" t="s">
-        <v>1635</v>
+      <c r="C738" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="739" spans="1:3">
       <c r="A739">
-        <v>24080063</v>
-      </c>
-      <c r="B739" s="8" t="s">
-        <v>1436</v>
+        <v>24090007</v>
+      </c>
+      <c r="B739" s="6" t="s">
+        <v>1437</v>
       </c>
       <c r="C739" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="740" spans="1:3" ht="15">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
       <c r="A740">
-        <v>24080064</v>
-      </c>
-      <c r="B740" s="8" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C740" s="15" t="s">
+        <v>24090008</v>
+      </c>
+      <c r="B740" s="6" t="s">
         <v>1439</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="A741">
-        <v>24080065</v>
-      </c>
-      <c r="B741" s="8" t="s">
-        <v>1440</v>
+        <v>24090009</v>
+      </c>
+      <c r="B741" s="6" t="s">
+        <v>1441</v>
       </c>
       <c r="C741" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="742" spans="1:3" ht="15">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
       <c r="A742">
-        <v>24080066</v>
-      </c>
-      <c r="B742" s="8" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C742" s="15" t="s">
+        <v>24090010</v>
+      </c>
+      <c r="B742" s="6" t="s">
         <v>1443</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="743" spans="1:3">
       <c r="A743">
-        <v>24080067</v>
-      </c>
-      <c r="B743" s="8" t="s">
-        <v>1444</v>
+        <v>24090011</v>
+      </c>
+      <c r="B743" s="6" t="s">
+        <v>1445</v>
       </c>
       <c r="C743" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="744" spans="1:3">
       <c r="A744">
-        <v>24080068</v>
-      </c>
-      <c r="B744" s="11" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C744" s="22" t="s">
-        <v>1634</v>
+        <v>24090012</v>
+      </c>
+      <c r="B744" s="6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="745" spans="1:3">
       <c r="A745">
-        <v>24090001</v>
+        <v>24090013</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C745" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="746" spans="1:3">
       <c r="A746">
-        <v>24090002</v>
+        <v>24090014</v>
       </c>
       <c r="B746" s="6" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C746" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="747" spans="1:3">
       <c r="A747">
-        <v>24090003</v>
+        <v>24090015</v>
       </c>
       <c r="B747" s="6" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C747" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="A748">
-        <v>24090004</v>
+        <v>24090016</v>
       </c>
       <c r="B748" s="6" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C748" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="749" spans="1:3">
       <c r="A749">
-        <v>24090005</v>
+        <v>24090017</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C749" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="A750">
-        <v>24090006</v>
+        <v>24090018</v>
       </c>
       <c r="B750" s="6" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C750" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751">
-        <v>24090007</v>
+        <v>24090019</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C751" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="A752">
-        <v>24090008</v>
+        <v>24090020</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C752" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="753" spans="1:3">
       <c r="A753">
-        <v>24090009</v>
+        <v>24090021</v>
       </c>
       <c r="B753" s="6" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C753" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="754" spans="1:3">
       <c r="A754">
-        <v>24090010</v>
+        <v>24090022</v>
       </c>
       <c r="B754" s="6" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C754" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="755" spans="1:3">
       <c r="A755">
-        <v>24090011</v>
+        <v>24090023</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C755" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="756" spans="1:3">
       <c r="A756">
-        <v>24090012</v>
+        <v>24090024</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C756" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="757" spans="1:3">
       <c r="A757">
-        <v>24090013</v>
+        <v>24090025</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C757" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="758" spans="1:3">
       <c r="A758">
-        <v>24090014</v>
+        <v>24090026</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C758" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="759" spans="1:3">
       <c r="A759">
-        <v>24090015</v>
+        <v>24090027</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C759" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="760" spans="1:3">
       <c r="A760">
-        <v>24090016</v>
+        <v>24090028</v>
       </c>
       <c r="B760" s="6" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C760" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="761" spans="1:3">
       <c r="A761">
-        <v>24090017</v>
+        <v>24090029</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C761" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="A762">
-        <v>24090018</v>
+        <v>24090030</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C762" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="763" spans="1:3">
       <c r="A763">
-        <v>24090019</v>
+        <v>24090031</v>
       </c>
       <c r="B763" s="6" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C763" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="764" spans="1:3">
       <c r="A764">
-        <v>24090020</v>
+        <v>24090032</v>
       </c>
       <c r="B764" s="6" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C764" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="A765">
-        <v>24090021</v>
+        <v>24090033</v>
       </c>
       <c r="B765" s="6" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C765" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="766" spans="1:3">
       <c r="A766">
-        <v>24090022</v>
+        <v>24090034</v>
       </c>
       <c r="B766" s="6" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C766" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="767" spans="1:3">
       <c r="A767">
-        <v>24090023</v>
+        <v>24090035</v>
       </c>
       <c r="B767" s="6" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C767" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="768" spans="1:3">
       <c r="A768">
-        <v>24090024</v>
+        <v>24090036</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C768" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="A769">
-        <v>24090025</v>
+        <v>24090037</v>
       </c>
       <c r="B769" s="6" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C769" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="770" spans="1:3">
       <c r="A770">
-        <v>24090026</v>
+        <v>24090038</v>
       </c>
       <c r="B770" s="6" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C770" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="A771">
-        <v>24090027</v>
+        <v>24090039</v>
       </c>
       <c r="B771" s="6" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C771" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="772" spans="1:3">
       <c r="A772">
-        <v>24090028</v>
+        <v>24090040</v>
       </c>
       <c r="B772" s="6" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C772" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="A773">
-        <v>24090029</v>
+        <v>24090041</v>
       </c>
       <c r="B773" s="6" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C773" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="A774">
-        <v>24090030</v>
+        <v>24090042</v>
       </c>
       <c r="B774" s="6" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C774" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="A775">
-        <v>24090031</v>
+        <v>24090043</v>
       </c>
       <c r="B775" s="6" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C775" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="A776">
-        <v>24090032</v>
+        <v>24090044</v>
       </c>
       <c r="B776" s="6" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C776" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="777" spans="1:3">
       <c r="A777">
-        <v>24090033</v>
+        <v>24090045</v>
       </c>
       <c r="B777" s="6" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C777" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="A778">
-        <v>24090034</v>
+        <v>24090046</v>
       </c>
       <c r="B778" s="6" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C778" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="779" spans="1:3">
       <c r="A779">
-        <v>24090035</v>
+        <v>24090047</v>
       </c>
       <c r="B779" s="6" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C779" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="780" spans="1:3">
       <c r="A780">
-        <v>24090036</v>
+        <v>24090048</v>
       </c>
       <c r="B780" s="6" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C780" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="781" spans="1:3">
       <c r="A781">
-        <v>24090037</v>
+        <v>24090049</v>
       </c>
       <c r="B781" s="6" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C781" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="782" spans="1:3">
       <c r="A782">
-        <v>24090038</v>
+        <v>24090050</v>
       </c>
       <c r="B782" s="6" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C782" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="783" spans="1:3">
       <c r="A783">
-        <v>24090039</v>
+        <v>24090051</v>
       </c>
       <c r="B783" s="6" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C783" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="784" spans="1:3">
       <c r="A784">
-        <v>24090040</v>
+        <v>24090052</v>
       </c>
       <c r="B784" s="6" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C784" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="785" spans="1:3">
       <c r="A785">
-        <v>24090041</v>
+        <v>24090053</v>
       </c>
       <c r="B785" s="6" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C785" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="786" spans="1:3">
       <c r="A786">
-        <v>24090042</v>
+        <v>24090054</v>
       </c>
       <c r="B786" s="6" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C786" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="A787">
-        <v>24090043</v>
+        <v>24090055</v>
       </c>
       <c r="B787" s="6" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="C787" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="788" spans="1:3">
       <c r="A788">
-        <v>24090044</v>
+        <v>24090056</v>
       </c>
       <c r="B788" s="6" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C788" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="789" spans="1:3">
       <c r="A789">
-        <v>24090045</v>
+        <v>24090057</v>
       </c>
       <c r="B789" s="6" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C789" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="790" spans="1:3">
       <c r="A790">
-        <v>24090046</v>
+        <v>24090058</v>
       </c>
       <c r="B790" s="6" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C790" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="791" spans="1:3">
       <c r="A791">
-        <v>24090047</v>
+        <v>24090059</v>
       </c>
       <c r="B791" s="6" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C791" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="792" spans="1:3">
       <c r="A792">
-        <v>24090048</v>
+        <v>24090060</v>
       </c>
       <c r="B792" s="6" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C792" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="793" spans="1:3">
       <c r="A793">
-        <v>24090049</v>
+        <v>24090061</v>
       </c>
       <c r="B793" s="6" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C793" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="794" spans="1:3">
       <c r="A794">
-        <v>24090050</v>
+        <v>24090062</v>
       </c>
       <c r="B794" s="6" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C794" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="795" spans="1:3">
       <c r="A795">
-        <v>24090051</v>
+        <v>24090063</v>
       </c>
       <c r="B795" s="6" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C795" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="796" spans="1:3">
       <c r="A796">
-        <v>24090052</v>
+        <v>24090064</v>
       </c>
       <c r="B796" s="6" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C796" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="797" spans="1:3">
       <c r="A797">
-        <v>24090053</v>
+        <v>24090065</v>
       </c>
       <c r="B797" s="6" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C797" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="798" spans="1:3">
       <c r="A798">
-        <v>24090054</v>
+        <v>24090066</v>
       </c>
       <c r="B798" s="6" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C798" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="799" spans="1:3">
       <c r="A799">
-        <v>24090055</v>
+        <v>24090067</v>
       </c>
       <c r="B799" s="6" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C799" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="800" spans="1:3">
       <c r="A800">
-        <v>24090056</v>
+        <v>24090068</v>
       </c>
       <c r="B800" s="6" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C800" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="801" spans="1:3">
       <c r="A801">
-        <v>24090057</v>
+        <v>24090069</v>
       </c>
       <c r="B801" s="6" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="C801" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="802" spans="1:3">
       <c r="A802">
-        <v>24090058</v>
+        <v>24090070</v>
       </c>
       <c r="B802" s="6" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C802" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="A803">
-        <v>24090059</v>
+        <v>24090071</v>
       </c>
       <c r="B803" s="6" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C803" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="804" spans="1:3">
       <c r="A804">
-        <v>24090060</v>
+        <v>24090072</v>
       </c>
       <c r="B804" s="6" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C804" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="805" spans="1:3">
       <c r="A805">
-        <v>24090061</v>
+        <v>24090073</v>
       </c>
       <c r="B805" s="6" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C805" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="806" spans="1:3">
       <c r="A806">
-        <v>24090062</v>
+        <v>24090074</v>
       </c>
       <c r="B806" s="6" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C806" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="807" spans="1:3">
       <c r="A807">
-        <v>24090063</v>
+        <v>24090075</v>
       </c>
       <c r="B807" s="6" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="C807" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="A808">
-        <v>24090064</v>
+        <v>24090076</v>
       </c>
       <c r="B808" s="6" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C808" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="809" spans="1:3">
       <c r="A809">
-        <v>24090065</v>
+        <v>24090077</v>
       </c>
       <c r="B809" s="6" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C809" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="810" spans="1:3">
-      <c r="A810">
-        <v>24090066</v>
-      </c>
-      <c r="B810" s="6" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C810" t="s">
         <v>1578</v>
-      </c>
-    </row>
-    <row r="811" spans="1:3">
-      <c r="A811">
-        <v>24090067</v>
-      </c>
-      <c r="B811" s="6" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C811" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="812" spans="1:3">
-      <c r="A812">
-        <v>24090068</v>
-      </c>
-      <c r="B812" s="6" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C812" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="813" spans="1:3">
-      <c r="A813">
-        <v>24090069</v>
-      </c>
-      <c r="B813" s="6" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C813" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="814" spans="1:3">
-      <c r="A814">
-        <v>24090070</v>
-      </c>
-      <c r="B814" s="6" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C814" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="815" spans="1:3">
-      <c r="A815">
-        <v>24090071</v>
-      </c>
-      <c r="B815" s="6" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C815" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="816" spans="1:3">
-      <c r="A816">
-        <v>24090072</v>
-      </c>
-      <c r="B816" s="6" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C816" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="817" spans="1:3">
-      <c r="A817">
-        <v>24090073</v>
-      </c>
-      <c r="B817" s="6" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C817" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="818" spans="1:3">
-      <c r="A818">
-        <v>24090074</v>
-      </c>
-      <c r="B818" s="6" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C818" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="819" spans="1:3">
-      <c r="A819">
-        <v>24090075</v>
-      </c>
-      <c r="B819" s="6" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C819" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="820" spans="1:3">
-      <c r="A820">
-        <v>24090076</v>
-      </c>
-      <c r="B820" s="6" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C820" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="821" spans="1:3">
-      <c r="A821">
-        <v>24090077</v>
-      </c>
-      <c r="B821" s="6" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C821" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="822" spans="1:3">
-      <c r="A822">
-        <v>24090078</v>
-      </c>
-      <c r="B822" s="6" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C822" t="s">
-        <v>1602</v>
       </c>
     </row>
   </sheetData>
